--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,7 +32,16 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of correct answers to understanding questions</t>
+    <t xml:space="preserve">Belief about foreign aid / public spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid (no info)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid (with info)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid (any branch)</t>
   </si>
 </sst>
 </file>
@@ -389,19 +398,79 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1.61194029850746</v>
+        <v>2.07461538461538</v>
       </c>
       <c r="C2" t="n">
-        <v>2.2258064516129</v>
+        <v>2.29354838709677</v>
       </c>
       <c r="D2" t="n">
-        <v>2.17241379310345</v>
+        <v>2.56851851851852</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>3.26119402985075</v>
       </c>
       <c r="F2" t="n">
-        <v>1.56976744186047</v>
+        <v>4.9695652173913</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.40714285714286</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.53461538461538</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.27142857142857</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.00147058823529</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.38157894736842</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.69583333333333</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.93055555555556</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.87142857142857</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.06969696969697</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.22021276595745</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.00703125</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.18387096774194</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.07142857142857</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.54253731343284</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.63352941176471</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,36 +12,666 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anguilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonaire Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivory Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about foreign aid / public spending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid (no info)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid (with info)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid (any branch)</t>
+    <t xml:space="preserve">Faeroe Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia (country)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadeloupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Guiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Caledonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Polynesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Helena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Virgin Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallis and Futuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_gain_2030</t>
   </si>
 </sst>
 </file>
@@ -392,85 +1022,1303 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="B2" t="n">
-        <v>2.07461538461538</v>
+        <v>-24.755584706286</v>
       </c>
       <c r="C2" t="n">
-        <v>2.29354838709677</v>
+        <v>25.8124550900726</v>
       </c>
       <c r="D2" t="n">
-        <v>2.56851851851852</v>
+        <v>16.5126892413771</v>
       </c>
       <c r="E2" t="n">
-        <v>3.26119402985075</v>
+        <v>-45.7752493044022</v>
       </c>
       <c r="F2" t="n">
-        <v>4.9695652173913</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3.40714285714286</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.53461538461538</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.27142857142857</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.00147058823529</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.38157894736842</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.69583333333333</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.93055555555556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.87142857142857</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.06969696969697</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.22021276595745</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.00703125</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.18387096774194</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.07142857142857</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.54253731343284</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.63352941176471</v>
+        <v>17.9504918663224</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-14.1292018579762</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-140.655557631031</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-4.24025748264329</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18.0733500194138</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-7.00530193749675</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-84.8428721809245</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-30.3330424835805</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.93929073129436</v>
+      </c>
+      <c r="O2" t="n">
+        <v>29.45242973758</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-85.0697170759457</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>20.5509353585419</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.596755296206751</v>
+      </c>
+      <c r="S2" t="n">
+        <v>26.3147871873514</v>
+      </c>
+      <c r="T2" t="n">
+        <v>25.9743198402202</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.05002276129656</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-66.4954065608264</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-10.210023461377</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.49411255296501</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-4.16620552349526</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12.7222712857977</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-19.3349172826544</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>11.7841478299493</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11.0506583511686</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.883066354503892</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-104.938267267493</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>19.4499697362784</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-28.8701458249754</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>29.4603383422576</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-71.4760145236052</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-78.312906578041</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-3.43876905799763</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-10.2185113354688</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>22.5135754548421</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>23.6319652905602</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>29.480046288453</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>15.9607008420542</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.40040296151878</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>9.33669517544321</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>27.2362093587484</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>22.4775281056493</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>11.8980537228943</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>15.072949392868</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-272.982430380031</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-6.11268614317967</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-26.3853913680732</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-29.7978860753595</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>25.826760251968</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>12.9289206752248</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-24.0219578638518</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.34964224992797</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-5.34624443493784</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>4.23729289903703</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>5.35230279261864</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>27.7666920098327</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-6.20298602579926</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-47.2888488809966</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>28.5264557959771</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-30.454588083338</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>19.4627053795371</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-10.8828754219956</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-54.2686731771827</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>18.7887363224166</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-4.63715242636173</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>-27.2618558944243</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>12.0810159471858</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>20.7612099224718</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>27.2937689271201</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>-8.54106806992142</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>26.3386188036828</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>27.991611046499</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-33.8838930510016</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>2.00929390896001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>14.5470676441722</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-28.6141928446672</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>21.169194297109</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.986192401739384</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>8.68069618330696</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-38.3427472582141</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>21.1349190313608</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>4.14195188463123</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>27.6500160933903</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-2.77904405709853</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>13.5926157659832</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>16.6151641260856</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>-42.1525357122666</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>-24.1139930040387</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-25.2067630138212</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>-48.0942129537656</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>-56.7261390267873</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-11.2314753277839</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>14.4133346381091</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>-8.53487874563616</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>-25.6518852843776</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>-59.471252398475</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>22.8214064952673</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>4.91940140776864</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>13.8073473857976</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>25.3841486589853</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>-1.52699435312394</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>-46.6524544520261</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-159.612315737947</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>19.9815560217274</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>10.493610121324</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>26.751197367986</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>-51.4718402131948</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>11.9435691323819</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>3.18361836760335</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>18.4498568285337</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>20.3940400400581</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-3.42697861451791</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-107.822983937844</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.927358567837246</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>8.4795948015391</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>15.3807615709625</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>21.8690412076589</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>27.5317089565924</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>6.96341469481921</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>-6.20961994416351</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>6.63415631623168</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>10.5610293174404</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>27.2066232644842</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-92.0322749273105</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>26.7887838515267</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>9.26004067179257</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>-38.6069030111036</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>21.8556711230117</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>19.5226248288881</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-27.000151506356</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-3.7041624978778</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>4.85322930570221</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>29.1492644080953</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>-28.4408553929088</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>12.5385664834975</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>-20.2056070857369</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>-92.7670719630972</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>28.1527257318365</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>21.7062162708726</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>19.0670454764024</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.748227886069483</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>-31.2303865408219</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>-35.05161301098</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>27.8266372326584</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-17.6817861154978</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-32.2046374536619</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-84.7263334816677</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>20.2690695089881</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>27.024074693867</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>12.844935222766</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>16.7236971358715</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>-39.1319303677953</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>21.8606413556771</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-15.5463453319305</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>23.7996213881636</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>2.24568745798382</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>16.0471246116373</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>21.7411602015383</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>8.04368314806283</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>-154.186337021047</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-6.05448144502835</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>8.32063808090232</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-21.9685924791332</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>28.8539069818243</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>-155.574933470015</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>22.7761014462359</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>18.7792743973573</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-149.198330624083</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>20.0261553200952</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>24.2800782169622</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>28.2031661796936</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>19.5128328870109</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>29.2886954559592</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>-33.9426294920655</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.493246918536091</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>28.1645470652392</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>22.7331795989569</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-3.73906763915705</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-12.9789505936965</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>-18.791603418523</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>-17.638367550297</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>22.5988552244454</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>-102.67686168004</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>-5.9158527203127</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>6.4987628328476</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>-38.0354124063108</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>28.1538495771143</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>26.4851690984112</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>6.94659042846527</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>18.7721970641252</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>-81.5489484591452</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>25.0357956530936</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>20.2883809556737</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-74.3550073613333</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>15.522887881279</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-8.53016382403038</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>24.7952160522935</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>-38.0998854819334</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>24.5040962642654</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>27.0434230100774</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>9.25535732205437</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>9.59090532681185</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>-88.477280233101</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>2.30860180006705</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>15.7178455333494</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>8.16641351533533</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-22.55385658525</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>18.3465403821384</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>24.3385241845879</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>17.9455192315879</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>18.8948346427578</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>23.7622348710843</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-16.0606795002427</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>22.3031193229829</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>17.9471165118844</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -1667,658 +1667,658 @@
         <v>219</v>
       </c>
       <c r="B2" t="n">
-        <v>-24.755584706286</v>
+        <v>-22.9690475903753</v>
       </c>
       <c r="C2" t="n">
-        <v>25.8124550900726</v>
+        <v>27.3234606147206</v>
       </c>
       <c r="D2" t="n">
-        <v>16.5126892413771</v>
+        <v>23.7203128374507</v>
       </c>
       <c r="E2" t="n">
-        <v>-45.7752493044022</v>
+        <v>-32.36507122416</v>
       </c>
       <c r="F2" t="n">
-        <v>17.9504918663224</v>
+        <v>17.4105599779813</v>
       </c>
       <c r="G2" t="n">
-        <v>-14.1292018579762</v>
+        <v>-7.0091961992821</v>
       </c>
       <c r="H2" t="n">
-        <v>-140.655557631031</v>
+        <v>-97.270105667798</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.24025748264329</v>
+        <v>5.02504470364364</v>
       </c>
       <c r="J2" t="n">
-        <v>18.0733500194138</v>
+        <v>14.3097369191978</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.00530193749675</v>
+        <v>-4.10013416555304</v>
       </c>
       <c r="L2" t="n">
-        <v>-84.8428721809245</v>
+        <v>-59.4243968332571</v>
       </c>
       <c r="M2" t="n">
-        <v>-30.3330424835805</v>
+        <v>-29.7576225359383</v>
       </c>
       <c r="N2" t="n">
-        <v>1.93929073129436</v>
+        <v>5.00841570136622</v>
       </c>
       <c r="O2" t="n">
-        <v>29.45242973758</v>
+        <v>29.4191510940989</v>
       </c>
       <c r="P2" t="n">
-        <v>-85.0697170759457</v>
+        <v>-76.5565029252884</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.5509353585419</v>
+        <v>24.587198771077</v>
       </c>
       <c r="R2" t="n">
-        <v>0.596755296206751</v>
+        <v>3.59179065613904</v>
       </c>
       <c r="S2" t="n">
-        <v>26.3147871873514</v>
+        <v>27.3078107790327</v>
       </c>
       <c r="T2" t="n">
-        <v>25.9743198402202</v>
+        <v>24.1728921744901</v>
       </c>
       <c r="U2" t="n">
-        <v>3.05002276129656</v>
+        <v>-3.28263584287856</v>
       </c>
       <c r="V2" t="n">
-        <v>-66.4954065608264</v>
+        <v>-58.7712424806176</v>
       </c>
       <c r="W2" t="n">
-        <v>-10.210023461377</v>
+        <v>-10.1890613084187</v>
       </c>
       <c r="X2" t="n">
-        <v>3.49411255296501</v>
+        <v>-6.99646041269461</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.16620552349526</v>
+        <v>-9.74083338223968</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.7222712857977</v>
+        <v>16.9229048119704</v>
       </c>
       <c r="AA2" t="n">
-        <v>-19.3349172826544</v>
+        <v>-24.5349539856815</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.7841478299493</v>
+        <v>15.2125580225765</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.0506583511686</v>
+        <v>15.4564556734345</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.883066354503892</v>
+        <v>4.08776216346126</v>
       </c>
       <c r="AE2" t="n">
-        <v>-104.938267267493</v>
+        <v>-118.236869229989</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.4499697362784</v>
+        <v>17.3413505803295</v>
       </c>
       <c r="AG2" t="n">
-        <v>-28.8701458249754</v>
+        <v>-7.8392237028414</v>
       </c>
       <c r="AH2" t="n">
-        <v>29.4603383422576</v>
+        <v>29.5702330743174</v>
       </c>
       <c r="AI2" t="n">
-        <v>-71.4760145236052</v>
+        <v>-55.0341144548946</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-78.312906578041</v>
+        <v>-54.363690765393</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.43876905799763</v>
+        <v>-2.01356667474815</v>
       </c>
       <c r="AL2" t="n">
-        <v>-10.2185113354688</v>
+        <v>-13.5484429268893</v>
       </c>
       <c r="AM2" t="n">
-        <v>22.5135754548421</v>
+        <v>24.9711991688463</v>
       </c>
       <c r="AN2" t="n">
-        <v>23.6319652905602</v>
+        <v>26.5213546201038</v>
       </c>
       <c r="AO2" t="n">
-        <v>29.480046288453</v>
+        <v>29.7250417221389</v>
       </c>
       <c r="AP2" t="n">
-        <v>15.9607008420542</v>
+        <v>18.4749154119908</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.40040296151878</v>
+        <v>-3.07613943405903</v>
       </c>
       <c r="AR2" t="n">
-        <v>9.33669517544321</v>
+        <v>14.6378663962828</v>
       </c>
       <c r="AS2" t="n">
-        <v>27.2362093587484</v>
+        <v>26.7364308078003</v>
       </c>
       <c r="AT2" t="n">
-        <v>22.4775281056493</v>
+        <v>22.5708153194219</v>
       </c>
       <c r="AU2" t="n">
-        <v>11.8980537228943</v>
+        <v>13.991879988965</v>
       </c>
       <c r="AV2" t="n">
-        <v>15.072949392868</v>
+        <v>17.7930027095552</v>
       </c>
       <c r="AW2" t="n">
-        <v>-272.982430380031</v>
+        <v>-32.7681255023039</v>
       </c>
       <c r="AX2" t="n">
-        <v>-6.11268614317967</v>
+        <v>-7.95074379913293</v>
       </c>
       <c r="AY2" t="n">
-        <v>-26.3853913680732</v>
+        <v>-32.5729316769254</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-29.7978860753595</v>
+        <v>-29.6504917542332</v>
       </c>
       <c r="BA2" t="n">
-        <v>25.826760251968</v>
+        <v>27.2812462912588</v>
       </c>
       <c r="BB2" t="n">
-        <v>12.9289206752248</v>
+        <v>14.938637123538</v>
       </c>
       <c r="BC2" t="n">
-        <v>-24.0219578638518</v>
+        <v>-18.6686339106388</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.34964224992797</v>
+        <v>8.27279074108631</v>
       </c>
       <c r="BE2" t="n">
-        <v>-5.34624443493784</v>
+        <v>-0.723578441936983</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.23729289903703</v>
+        <v>11.1598156928333</v>
       </c>
       <c r="BG2" t="n">
-        <v>5.35230279261864</v>
+        <v>11.7271259362386</v>
       </c>
       <c r="BH2" t="n">
-        <v>27.7666920098327</v>
+        <v>27.8927681038042</v>
       </c>
       <c r="BI2" t="n">
-        <v>-6.20298602579926</v>
+        <v>-5.77240606890779</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-47.2888488809966</v>
+        <v>-37.2873354304237</v>
       </c>
       <c r="BK2" t="n">
-        <v>28.5264557959771</v>
+        <v>28.3845925217855</v>
       </c>
       <c r="BL2" t="n">
-        <v>-30.454588083338</v>
+        <v>-28.2579466175052</v>
       </c>
       <c r="BM2" t="n">
-        <v>19.4627053795371</v>
+        <v>19.3414206688143</v>
       </c>
       <c r="BN2" t="n">
-        <v>-10.8828754219956</v>
+        <v>-9.83613894890679</v>
       </c>
       <c r="BO2" t="n">
-        <v>-54.2686731771827</v>
+        <v>-61.784444570229</v>
       </c>
       <c r="BP2" t="n">
-        <v>18.7887363224166</v>
+        <v>20.2245988957745</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-4.63715242636173</v>
+        <v>9.50303160690541</v>
       </c>
       <c r="BR2" t="n">
-        <v>-27.2618558944243</v>
+        <v>-17.6427616369274</v>
       </c>
       <c r="BS2" t="n">
-        <v>12.0810159471858</v>
+        <v>9.45303929287128</v>
       </c>
       <c r="BT2" t="n">
-        <v>20.7612099224718</v>
+        <v>24.2466561219866</v>
       </c>
       <c r="BU2" t="n">
-        <v>27.2937689271201</v>
+        <v>25.6029241004501</v>
       </c>
       <c r="BV2" t="n">
-        <v>-8.54106806992142</v>
+        <v>-10.1923184463076</v>
       </c>
       <c r="BW2" t="n">
-        <v>26.3386188036828</v>
+        <v>27.8144114216932</v>
       </c>
       <c r="BX2" t="n">
-        <v>27.991611046499</v>
+        <v>28.5809960061248</v>
       </c>
       <c r="BY2" t="n">
-        <v>-33.8838930510016</v>
+        <v>5.17128819486549</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.00929390896001</v>
+        <v>0.165373944908037</v>
       </c>
       <c r="CA2" t="n">
-        <v>14.5470676441722</v>
+        <v>11.9990058030648</v>
       </c>
       <c r="CB2" t="n">
-        <v>-28.6141928446672</v>
+        <v>-33.5491528136763</v>
       </c>
       <c r="CC2" t="n">
-        <v>21.169194297109</v>
+        <v>19.1501592479268</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.986192401739384</v>
+        <v>10.8867926996684</v>
       </c>
       <c r="CE2" t="n">
-        <v>8.68069618330696</v>
+        <v>5.61054576268573</v>
       </c>
       <c r="CF2" t="n">
-        <v>-38.3427472582141</v>
+        <v>-35.2890443853779</v>
       </c>
       <c r="CG2" t="n">
-        <v>21.1349190313608</v>
+        <v>23.2110624140908</v>
       </c>
       <c r="CH2" t="n">
-        <v>4.14195188463123</v>
+        <v>-3.77185924584164</v>
       </c>
       <c r="CI2" t="n">
-        <v>27.6500160933903</v>
+        <v>27.9273533711417</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-2.77904405709853</v>
+        <v>-9.79039843082217</v>
       </c>
       <c r="CK2" t="n">
-        <v>13.5926157659832</v>
+        <v>12.9869100627324</v>
       </c>
       <c r="CL2" t="n">
-        <v>16.6151641260856</v>
+        <v>17.6489215000037</v>
       </c>
       <c r="CM2" t="n">
-        <v>-42.1525357122666</v>
+        <v>-35.2085189257293</v>
       </c>
       <c r="CN2" t="n">
-        <v>-24.1139930040387</v>
+        <v>-18.5177396835308</v>
       </c>
       <c r="CO2" t="n">
-        <v>-25.2067630138212</v>
+        <v>-7.42778627592453</v>
       </c>
       <c r="CP2" t="n">
-        <v>-48.0942129537656</v>
+        <v>-31.5613650005249</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-56.7261390267873</v>
+        <v>-35.6457965659658</v>
       </c>
       <c r="CR2" t="n">
-        <v>-11.2314753277839</v>
+        <v>-12.4708998377956</v>
       </c>
       <c r="CS2" t="n">
-        <v>14.4133346381091</v>
+        <v>13.5499483127758</v>
       </c>
       <c r="CT2" t="n">
-        <v>-8.53487874563616</v>
+        <v>7.5341502051126</v>
       </c>
       <c r="CU2" t="n">
-        <v>-25.6518852843776</v>
+        <v>-27.41084531537</v>
       </c>
       <c r="CV2" t="n">
-        <v>-59.471252398475</v>
+        <v>-35.4524317624052</v>
       </c>
       <c r="CW2" t="n">
-        <v>22.8214064952673</v>
+        <v>25.4038150146452</v>
       </c>
       <c r="CX2" t="n">
-        <v>4.91940140776864</v>
+        <v>8.33901419274354</v>
       </c>
       <c r="CY2" t="n">
-        <v>13.8073473857976</v>
+        <v>12.3802930065689</v>
       </c>
       <c r="CZ2" t="n">
-        <v>25.3841486589853</v>
+        <v>25.7772018577262</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.52699435312394</v>
+        <v>-3.76279651381447</v>
       </c>
       <c r="DB2" t="n">
-        <v>-46.6524544520261</v>
+        <v>-49.2712615768399</v>
       </c>
       <c r="DC2" t="n">
-        <v>-159.612315737947</v>
+        <v>-118.864856305818</v>
       </c>
       <c r="DD2" t="n">
-        <v>19.9815560217274</v>
+        <v>7.21988327688312</v>
       </c>
       <c r="DE2" t="n">
-        <v>10.493610121324</v>
+        <v>-2.06453920269929</v>
       </c>
       <c r="DF2" t="n">
-        <v>26.751197367986</v>
+        <v>28.0610922331093</v>
       </c>
       <c r="DG2" t="n">
-        <v>-51.4718402131948</v>
+        <v>-46.4421010358717</v>
       </c>
       <c r="DH2" t="n">
-        <v>11.9435691323819</v>
+        <v>11.8709847045448</v>
       </c>
       <c r="DI2" t="n">
-        <v>3.18361836760335</v>
+        <v>6.9164151559513</v>
       </c>
       <c r="DJ2" t="n">
-        <v>18.4498568285337</v>
+        <v>18.5937498945892</v>
       </c>
       <c r="DK2" t="n">
-        <v>20.3940400400581</v>
+        <v>21.6854642091336</v>
       </c>
       <c r="DL2" t="n">
-        <v>-3.42697861451791</v>
+        <v>-16.2525060404309</v>
       </c>
       <c r="DM2" t="n">
-        <v>-107.822983937844</v>
+        <v>-60.6470688602023</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.927358567837246</v>
+        <v>-18.6639481312715</v>
       </c>
       <c r="DO2" t="n">
-        <v>8.4795948015391</v>
+        <v>19.2050760956897</v>
       </c>
       <c r="DP2" t="n">
-        <v>15.3807615709625</v>
+        <v>16.4705041061466</v>
       </c>
       <c r="DQ2" t="n">
-        <v>21.8690412076589</v>
+        <v>18.8559325581421</v>
       </c>
       <c r="DR2" t="n">
-        <v>27.5317089565924</v>
+        <v>28.2771692464267</v>
       </c>
       <c r="DS2" t="n">
-        <v>6.96341469481921</v>
+        <v>4.82072467429822</v>
       </c>
       <c r="DT2" t="n">
-        <v>-6.20961994416351</v>
+        <v>1.73622805813603</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.63415631623168</v>
+        <v>4.39875102827986</v>
       </c>
       <c r="DV2" t="n">
-        <v>10.5610293174404</v>
+        <v>7.06041067510768</v>
       </c>
       <c r="DW2" t="n">
-        <v>27.2066232644842</v>
+        <v>28.1759851751264</v>
       </c>
       <c r="DX2" t="n">
-        <v>-92.0322749273105</v>
+        <v>-84.9653285823</v>
       </c>
       <c r="DY2" t="n">
-        <v>26.7887838515267</v>
+        <v>25.5557755499369</v>
       </c>
       <c r="DZ2" t="n">
-        <v>9.26004067179257</v>
+        <v>5.58440803950573</v>
       </c>
       <c r="EA2" t="n">
-        <v>-38.6069030111036</v>
+        <v>-66.5735139074686</v>
       </c>
       <c r="EB2" t="n">
-        <v>21.8556711230117</v>
+        <v>25.8594449468929</v>
       </c>
       <c r="EC2" t="n">
-        <v>19.5226248288881</v>
+        <v>22.3618082229734</v>
       </c>
       <c r="ED2" t="n">
-        <v>-27.000151506356</v>
+        <v>1.04132440380037</v>
       </c>
       <c r="EE2" t="n">
-        <v>-3.7041624978778</v>
+        <v>-8.0939441851856</v>
       </c>
       <c r="EF2" t="n">
-        <v>4.85322930570221</v>
+        <v>1.62178127175625</v>
       </c>
       <c r="EG2" t="n">
-        <v>29.1492644080953</v>
+        <v>28.7522856555228</v>
       </c>
       <c r="EH2" t="n">
-        <v>-28.4408553929088</v>
+        <v>-20.7390368740826</v>
       </c>
       <c r="EI2" t="n">
-        <v>12.5385664834975</v>
+        <v>20.5669936514656</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-20.2056070857369</v>
+        <v>-0.641859847009599</v>
       </c>
       <c r="EK2" t="n">
-        <v>-92.7670719630972</v>
+        <v>-88.3403591644323</v>
       </c>
       <c r="EL2" t="n">
-        <v>28.1527257318365</v>
+        <v>28.9509833689561</v>
       </c>
       <c r="EM2" t="n">
-        <v>21.7062162708726</v>
+        <v>24.7045057707612</v>
       </c>
       <c r="EN2" t="n">
-        <v>19.0670454764024</v>
+        <v>22.6137706634126</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.748227886069483</v>
+        <v>-9.64605055008452</v>
       </c>
       <c r="EP2" t="n">
-        <v>-31.2303865408219</v>
+        <v>-28.1290759065875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-35.05161301098</v>
+        <v>-26.5214726226211</v>
       </c>
       <c r="ER2" t="n">
-        <v>27.8266372326584</v>
+        <v>23.6703628795576</v>
       </c>
       <c r="ES2" t="n">
-        <v>-17.6817861154978</v>
+        <v>-7.74921288354445</v>
       </c>
       <c r="ET2" t="n">
-        <v>-32.2046374536619</v>
+        <v>-20.0951644900848</v>
       </c>
       <c r="EU2" t="n">
-        <v>-84.7263334816677</v>
+        <v>-51.1767885455648</v>
       </c>
       <c r="EV2" t="n">
-        <v>20.2690695089881</v>
+        <v>21.7725396319019</v>
       </c>
       <c r="EW2" t="n">
-        <v>27.024074693867</v>
+        <v>0.905007265749436</v>
       </c>
       <c r="EX2" t="n">
-        <v>12.844935222766</v>
+        <v>15.7935747921892</v>
       </c>
       <c r="EY2" t="n">
-        <v>16.7236971358715</v>
+        <v>18.0760623041624</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-39.1319303677953</v>
+        <v>-48.683407599224</v>
       </c>
       <c r="FA2" t="n">
-        <v>21.8606413556771</v>
+        <v>23.5189424035435</v>
       </c>
       <c r="FB2" t="n">
-        <v>-15.5463453319305</v>
+        <v>-18.2713682778314</v>
       </c>
       <c r="FC2" t="n">
-        <v>23.7996213881636</v>
+        <v>17.1293079229142</v>
       </c>
       <c r="FD2" t="n">
-        <v>2.24568745798382</v>
+        <v>-0.0615548689521042</v>
       </c>
       <c r="FE2" t="n">
-        <v>16.0471246116373</v>
+        <v>16.1258349846124</v>
       </c>
       <c r="FF2" t="n">
-        <v>21.7411602015383</v>
+        <v>24.3890770172706</v>
       </c>
       <c r="FG2" t="n">
-        <v>8.04368314806283</v>
+        <v>10.8408714069349</v>
       </c>
       <c r="FH2" t="n">
-        <v>-154.186337021047</v>
+        <v>-126.690461793598</v>
       </c>
       <c r="FI2" t="n">
-        <v>-6.05448144502835</v>
+        <v>-1.85335321244789</v>
       </c>
       <c r="FJ2" t="n">
-        <v>8.32063808090232</v>
+        <v>3.52162886140105</v>
       </c>
       <c r="FK2" t="n">
-        <v>-21.9685924791332</v>
+        <v>-28.4406816086691</v>
       </c>
       <c r="FL2" t="n">
-        <v>28.8539069818243</v>
+        <v>28.4671017741904</v>
       </c>
       <c r="FM2" t="n">
-        <v>-155.574933470015</v>
+        <v>-91.9471253408784</v>
       </c>
       <c r="FN2" t="n">
-        <v>22.7761014462359</v>
+        <v>25.6089293600515</v>
       </c>
       <c r="FO2" t="n">
-        <v>18.7792743973573</v>
+        <v>21.5198637191636</v>
       </c>
       <c r="FP2" t="n">
-        <v>-149.198330624083</v>
+        <v>-127.816783021064</v>
       </c>
       <c r="FQ2" t="n">
-        <v>20.0261553200952</v>
+        <v>14.1291895091785</v>
       </c>
       <c r="FR2" t="n">
-        <v>24.2800782169622</v>
+        <v>26.3351024143372</v>
       </c>
       <c r="FS2" t="n">
-        <v>28.2031661796936</v>
+        <v>28.7430044332473</v>
       </c>
       <c r="FT2" t="n">
-        <v>19.5128328870109</v>
+        <v>19.6072154537689</v>
       </c>
       <c r="FU2" t="n">
-        <v>29.2886954559592</v>
+        <v>29.6142631139816</v>
       </c>
       <c r="FV2" t="n">
-        <v>-33.9426294920655</v>
+        <v>-38.3039966069726</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.493246918536091</v>
+        <v>-5.43252171925104</v>
       </c>
       <c r="FX2" t="n">
-        <v>28.1645470652392</v>
+        <v>28.5010655536616</v>
       </c>
       <c r="FY2" t="n">
-        <v>22.7331795989569</v>
+        <v>24.6941528530317</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-3.73906763915705</v>
+        <v>-1.16026783952091</v>
       </c>
       <c r="GA2" t="n">
-        <v>-12.9789505936965</v>
+        <v>-14.6634753463855</v>
       </c>
       <c r="GB2" t="n">
-        <v>-18.791603418523</v>
+        <v>-28.386915685327</v>
       </c>
       <c r="GC2" t="n">
-        <v>-17.638367550297</v>
+        <v>-11.439833689429</v>
       </c>
       <c r="GD2" t="n">
-        <v>22.5988552244454</v>
+        <v>22.4017204019312</v>
       </c>
       <c r="GE2" t="n">
-        <v>-102.67686168004</v>
+        <v>-63.9819732810083</v>
       </c>
       <c r="GF2" t="n">
-        <v>-5.9158527203127</v>
+        <v>-7.69176196915858</v>
       </c>
       <c r="GG2" t="n">
-        <v>6.4987628328476</v>
+        <v>19.1099058706232</v>
       </c>
       <c r="GH2" t="n">
-        <v>-38.0354124063108</v>
+        <v>-21.5282295577157</v>
       </c>
       <c r="GI2" t="n">
-        <v>28.1538495771143</v>
+        <v>28.8363922287184</v>
       </c>
       <c r="GJ2" t="n">
-        <v>26.4851690984112</v>
+        <v>21.7531959379866</v>
       </c>
       <c r="GK2" t="n">
-        <v>6.94659042846527</v>
+        <v>6.50153719520144</v>
       </c>
       <c r="GL2" t="n">
-        <v>18.7721970641252</v>
+        <v>18.1264937368047</v>
       </c>
       <c r="GM2" t="n">
-        <v>-81.5489484591452</v>
+        <v>-59.6300425327581</v>
       </c>
       <c r="GN2" t="n">
-        <v>25.0357956530936</v>
+        <v>25.7099804444708</v>
       </c>
       <c r="GO2" t="n">
-        <v>20.2883809556737</v>
+        <v>17.8998840648696</v>
       </c>
       <c r="GP2" t="n">
-        <v>-74.3550073613333</v>
+        <v>-78.1430946963705</v>
       </c>
       <c r="GQ2" t="n">
-        <v>15.522887881279</v>
+        <v>14.5991362501725</v>
       </c>
       <c r="GR2" t="n">
-        <v>-8.53016382403038</v>
+        <v>-1.64286680154703</v>
       </c>
       <c r="GS2" t="n">
-        <v>24.7952160522935</v>
+        <v>25.0371992515042</v>
       </c>
       <c r="GT2" t="n">
-        <v>-38.0998854819334</v>
+        <v>-41.2563666495105</v>
       </c>
       <c r="GU2" t="n">
-        <v>24.5040962642654</v>
+        <v>27.2049538883106</v>
       </c>
       <c r="GV2" t="n">
-        <v>27.0434230100774</v>
+        <v>28.205623787027</v>
       </c>
       <c r="GW2" t="n">
-        <v>9.25535732205437</v>
+        <v>1.77562350211701</v>
       </c>
       <c r="GX2" t="n">
-        <v>9.59090532681185</v>
+        <v>10.5809088156602</v>
       </c>
       <c r="GY2" t="n">
-        <v>-88.477280233101</v>
+        <v>-76.4817877509607</v>
       </c>
       <c r="GZ2" t="n">
-        <v>2.30860180006705</v>
+        <v>4.06244264887512</v>
       </c>
       <c r="HA2" t="n">
-        <v>15.7178455333494</v>
+        <v>15.8035862653178</v>
       </c>
       <c r="HB2" t="n">
-        <v>8.16641351533533</v>
+        <v>28.5846209953879</v>
       </c>
       <c r="HC2" t="n">
-        <v>-22.55385658525</v>
+        <v>-3.53587200126826</v>
       </c>
       <c r="HD2" t="n">
-        <v>18.3465403821384</v>
+        <v>15.5126881502137</v>
       </c>
       <c r="HE2" t="n">
-        <v>24.3385241845879</v>
+        <v>25.5268680390496</v>
       </c>
       <c r="HF2" t="n">
-        <v>17.9455192315879</v>
+        <v>15.2352742570804</v>
       </c>
       <c r="HG2" t="n">
-        <v>18.8948346427578</v>
+        <v>19.4991449239945</v>
       </c>
       <c r="HH2" t="n">
-        <v>23.7622348710843</v>
+        <v>26.565690627399</v>
       </c>
       <c r="HI2" t="n">
-        <v>-16.0606795002427</v>
+        <v>-10.7529952450791</v>
       </c>
       <c r="HJ2" t="n">
-        <v>22.3031193229829</v>
+        <v>25.5483326693031</v>
       </c>
       <c r="HK2" t="n">
-        <v>17.9471165118844</v>
+        <v>23.162259349617</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -671,7 +671,7 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_gain_2030</t>
+    <t xml:space="preserve">mean_gain_2023</t>
   </si>
 </sst>
 </file>
@@ -1667,658 +1667,658 @@
         <v>219</v>
       </c>
       <c r="B2" t="n">
-        <v>-22.9690475903753</v>
+        <v>-24.2125607303905</v>
       </c>
       <c r="C2" t="n">
-        <v>27.3234606147206</v>
+        <v>26.670838434096</v>
       </c>
       <c r="D2" t="n">
-        <v>23.7203128374507</v>
+        <v>22.0015157304027</v>
       </c>
       <c r="E2" t="n">
-        <v>-32.36507122416</v>
+        <v>-35.280914318163</v>
       </c>
       <c r="F2" t="n">
-        <v>17.4105599779813</v>
+        <v>17.4234198024275</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.0091961992821</v>
+        <v>-8.56674502354512</v>
       </c>
       <c r="H2" t="n">
-        <v>-97.270105667798</v>
+        <v>-106.251846984874</v>
       </c>
       <c r="I2" t="n">
-        <v>5.02504470364364</v>
+        <v>3.13015608841638</v>
       </c>
       <c r="J2" t="n">
-        <v>14.3097369191978</v>
+        <v>13.8580106129865</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.10013416555304</v>
+        <v>-5.93661143036973</v>
       </c>
       <c r="L2" t="n">
-        <v>-59.4243968332571</v>
+        <v>-66.9414796445787</v>
       </c>
       <c r="M2" t="n">
-        <v>-29.7576225359383</v>
+        <v>-30.6014753121639</v>
       </c>
       <c r="N2" t="n">
-        <v>5.00841570136622</v>
+        <v>2.65232911766856</v>
       </c>
       <c r="O2" t="n">
-        <v>29.4191510940989</v>
+        <v>29.2410135604127</v>
       </c>
       <c r="P2" t="n">
-        <v>-76.5565029252884</v>
+        <v>-79.9395595885504</v>
       </c>
       <c r="Q2" t="n">
-        <v>24.587198771077</v>
+        <v>23.3304329205634</v>
       </c>
       <c r="R2" t="n">
-        <v>3.59179065613904</v>
+        <v>2.37905565024858</v>
       </c>
       <c r="S2" t="n">
-        <v>27.3078107790327</v>
+        <v>26.6256205363009</v>
       </c>
       <c r="T2" t="n">
-        <v>24.1728921744901</v>
+        <v>23.6111861786227</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.28263584287856</v>
+        <v>-1.63394952990892</v>
       </c>
       <c r="V2" t="n">
-        <v>-58.7712424806176</v>
+        <v>-67.5201494738592</v>
       </c>
       <c r="W2" t="n">
-        <v>-10.1890613084187</v>
+        <v>-12.8251559210075</v>
       </c>
       <c r="X2" t="n">
-        <v>-6.99646041269461</v>
+        <v>-6.43863009256658</v>
       </c>
       <c r="Y2" t="n">
-        <v>-9.74083338223968</v>
+        <v>-9.5116268086318</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.9229048119704</v>
+        <v>15.0915819865857</v>
       </c>
       <c r="AA2" t="n">
-        <v>-24.5349539856815</v>
+        <v>-24.8619152587801</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.2125580225765</v>
+        <v>13.1854619052573</v>
       </c>
       <c r="AC2" t="n">
-        <v>15.4564556734345</v>
+        <v>14.6126473829474</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.08776216346126</v>
+        <v>3.71503521088332</v>
       </c>
       <c r="AE2" t="n">
-        <v>-118.236869229989</v>
+        <v>-130.197222399771</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.3413505803295</v>
+        <v>16.1806554511996</v>
       </c>
       <c r="AG2" t="n">
-        <v>-7.8392237028414</v>
+        <v>-13.8995254939645</v>
       </c>
       <c r="AH2" t="n">
-        <v>29.5702330743174</v>
+        <v>29.4483036360674</v>
       </c>
       <c r="AI2" t="n">
-        <v>-55.0341144548946</v>
+        <v>-60.8229336568902</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-54.363690765393</v>
+        <v>-58.3148781180777</v>
       </c>
       <c r="AK2" t="n">
-        <v>-2.01356667474815</v>
+        <v>-3.1341160338621</v>
       </c>
       <c r="AL2" t="n">
-        <v>-13.5484429268893</v>
+        <v>-15.1698029517241</v>
       </c>
       <c r="AM2" t="n">
-        <v>24.9711991688463</v>
+        <v>23.8067268365912</v>
       </c>
       <c r="AN2" t="n">
-        <v>26.5213546201038</v>
+        <v>25.6964297754251</v>
       </c>
       <c r="AO2" t="n">
-        <v>29.7250417221389</v>
+        <v>29.6492585912537</v>
       </c>
       <c r="AP2" t="n">
-        <v>18.4749154119908</v>
+        <v>15.7423753504859</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-3.07613943405903</v>
+        <v>-3.77437681368337</v>
       </c>
       <c r="AR2" t="n">
-        <v>14.6378663962828</v>
+        <v>13.679435565115</v>
       </c>
       <c r="AS2" t="n">
-        <v>26.7364308078003</v>
+        <v>26.1664342289305</v>
       </c>
       <c r="AT2" t="n">
-        <v>22.5708153194219</v>
+        <v>21.7613921040565</v>
       </c>
       <c r="AU2" t="n">
-        <v>13.991879988965</v>
+        <v>12.7735590957899</v>
       </c>
       <c r="AV2" t="n">
-        <v>17.7930027095552</v>
+        <v>17.7552123714854</v>
       </c>
       <c r="AW2" t="n">
-        <v>-32.7681255023039</v>
+        <v>-35.1469937059229</v>
       </c>
       <c r="AX2" t="n">
-        <v>-7.95074379913293</v>
+        <v>-10.0772439672389</v>
       </c>
       <c r="AY2" t="n">
-        <v>-32.5729316769254</v>
+        <v>-33.5404927643918</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-29.6504917542332</v>
+        <v>-29.290357067194</v>
       </c>
       <c r="BA2" t="n">
-        <v>27.2812462912588</v>
+        <v>26.9306095728301</v>
       </c>
       <c r="BB2" t="n">
-        <v>14.938637123538</v>
+        <v>14.373589814659</v>
       </c>
       <c r="BC2" t="n">
-        <v>-18.6686339106388</v>
+        <v>-20.1662700423265</v>
       </c>
       <c r="BD2" t="n">
-        <v>8.27279074108631</v>
+        <v>6.24619739301223</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.723578441936983</v>
+        <v>-5.35036779568824</v>
       </c>
       <c r="BF2" t="n">
-        <v>11.1598156928333</v>
+        <v>9.08794224200163</v>
       </c>
       <c r="BG2" t="n">
-        <v>11.7271259362386</v>
+        <v>8.73563980939531</v>
       </c>
       <c r="BH2" t="n">
-        <v>27.8927681038042</v>
+        <v>27.4676050780887</v>
       </c>
       <c r="BI2" t="n">
-        <v>-5.77240606890779</v>
+        <v>-6.18574678925652</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-37.2873354304237</v>
+        <v>-36.4847748177491</v>
       </c>
       <c r="BK2" t="n">
-        <v>28.3845925217855</v>
+        <v>28.0288463226843</v>
       </c>
       <c r="BL2" t="n">
-        <v>-28.2579466175052</v>
+        <v>-29.6213179609585</v>
       </c>
       <c r="BM2" t="n">
-        <v>19.3414206688143</v>
+        <v>18.4334449203682</v>
       </c>
       <c r="BN2" t="n">
-        <v>-9.83613894890679</v>
+        <v>-10.8788485959412</v>
       </c>
       <c r="BO2" t="n">
-        <v>-61.784444570229</v>
+        <v>-63.955507224149</v>
       </c>
       <c r="BP2" t="n">
-        <v>20.2245988957745</v>
+        <v>19.3058472674589</v>
       </c>
       <c r="BQ2" t="n">
-        <v>9.50303160690541</v>
+        <v>5.62381696931772</v>
       </c>
       <c r="BR2" t="n">
-        <v>-17.6427616369274</v>
+        <v>-19.7209551985084</v>
       </c>
       <c r="BS2" t="n">
-        <v>9.45303929287128</v>
+        <v>9.38885401032359</v>
       </c>
       <c r="BT2" t="n">
-        <v>24.2466561219866</v>
+        <v>23.1503674014475</v>
       </c>
       <c r="BU2" t="n">
-        <v>25.6029241004501</v>
+        <v>24.6036616682305</v>
       </c>
       <c r="BV2" t="n">
-        <v>-10.1923184463076</v>
+        <v>-10.8568239265825</v>
       </c>
       <c r="BW2" t="n">
-        <v>27.8144114216932</v>
+        <v>27.2571758774848</v>
       </c>
       <c r="BX2" t="n">
-        <v>28.5809960061248</v>
+        <v>28.2664760629374</v>
       </c>
       <c r="BY2" t="n">
-        <v>5.17128819486549</v>
+        <v>-0.410559560209293</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.165373944908037</v>
+        <v>0.452927481586318</v>
       </c>
       <c r="CA2" t="n">
-        <v>11.9990058030648</v>
+        <v>10.906935626363</v>
       </c>
       <c r="CB2" t="n">
-        <v>-33.5491528136763</v>
+        <v>-34.6909664334142</v>
       </c>
       <c r="CC2" t="n">
-        <v>19.1501592479268</v>
+        <v>17.3387919011068</v>
       </c>
       <c r="CD2" t="n">
-        <v>10.8867926996684</v>
+        <v>7.30052597241371</v>
       </c>
       <c r="CE2" t="n">
-        <v>5.61054576268573</v>
+        <v>3.94794925616317</v>
       </c>
       <c r="CF2" t="n">
-        <v>-35.2890443853779</v>
+        <v>-36.5656699809236</v>
       </c>
       <c r="CG2" t="n">
-        <v>23.2110624140908</v>
+        <v>22.2119999090824</v>
       </c>
       <c r="CH2" t="n">
-        <v>-3.77185924584164</v>
+        <v>-2.74847550832855</v>
       </c>
       <c r="CI2" t="n">
-        <v>27.9273533711417</v>
+        <v>27.6797332318267</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-9.79039843082217</v>
+        <v>-7.59529041488192</v>
       </c>
       <c r="CK2" t="n">
-        <v>12.9869100627324</v>
+        <v>11.522510495987</v>
       </c>
       <c r="CL2" t="n">
-        <v>17.6489215000037</v>
+        <v>16.4519699679904</v>
       </c>
       <c r="CM2" t="n">
-        <v>-35.2085189257293</v>
+        <v>-40.0217709775439</v>
       </c>
       <c r="CN2" t="n">
-        <v>-18.5177396835308</v>
+        <v>-23.0347730324698</v>
       </c>
       <c r="CO2" t="n">
-        <v>-7.42778627592453</v>
+        <v>-15.9687903847391</v>
       </c>
       <c r="CP2" t="n">
-        <v>-31.5613650005249</v>
+        <v>-34.9853114771349</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-35.6457965659658</v>
+        <v>-44.1731550644287</v>
       </c>
       <c r="CR2" t="n">
-        <v>-12.4708998377956</v>
+        <v>-12.1029982034538</v>
       </c>
       <c r="CS2" t="n">
-        <v>13.5499483127758</v>
+        <v>13.1767370931379</v>
       </c>
       <c r="CT2" t="n">
-        <v>7.5341502051126</v>
+        <v>5.0973275171541</v>
       </c>
       <c r="CU2" t="n">
-        <v>-27.41084531537</v>
+        <v>-25.6777320148732</v>
       </c>
       <c r="CV2" t="n">
-        <v>-35.4524317624052</v>
+        <v>-42.4035315823383</v>
       </c>
       <c r="CW2" t="n">
-        <v>25.4038150146452</v>
+        <v>24.487638862759</v>
       </c>
       <c r="CX2" t="n">
-        <v>8.33901419274354</v>
+        <v>4.80100824073954</v>
       </c>
       <c r="CY2" t="n">
-        <v>12.3802930065689</v>
+        <v>10.4130776223446</v>
       </c>
       <c r="CZ2" t="n">
-        <v>25.7772018577262</v>
+        <v>25.0966847891202</v>
       </c>
       <c r="DA2" t="n">
-        <v>-3.76279651381447</v>
+        <v>-4.81397262821736</v>
       </c>
       <c r="DB2" t="n">
-        <v>-49.2712615768399</v>
+        <v>-50.2567146588919</v>
       </c>
       <c r="DC2" t="n">
-        <v>-118.864856305818</v>
+        <v>-138.022976572278</v>
       </c>
       <c r="DD2" t="n">
-        <v>7.21988327688312</v>
+        <v>4.27015510759388</v>
       </c>
       <c r="DE2" t="n">
-        <v>-2.06453920269929</v>
+        <v>-0.272450475310549</v>
       </c>
       <c r="DF2" t="n">
-        <v>28.0610922331093</v>
+        <v>27.6354574276714</v>
       </c>
       <c r="DG2" t="n">
-        <v>-46.4421010358717</v>
+        <v>-56.3721609264349</v>
       </c>
       <c r="DH2" t="n">
-        <v>11.8709847045448</v>
+        <v>11.2647440943167</v>
       </c>
       <c r="DI2" t="n">
-        <v>6.9164151559513</v>
+        <v>5.85484262580758</v>
       </c>
       <c r="DJ2" t="n">
-        <v>18.5937498945892</v>
+        <v>18.0921810268016</v>
       </c>
       <c r="DK2" t="n">
-        <v>21.6854642091336</v>
+        <v>20.8506461634615</v>
       </c>
       <c r="DL2" t="n">
-        <v>-16.2525060404309</v>
+        <v>-13.8841296193678</v>
       </c>
       <c r="DM2" t="n">
-        <v>-60.6470688602023</v>
+        <v>-67.3863824909692</v>
       </c>
       <c r="DN2" t="n">
-        <v>-18.6639481312715</v>
+        <v>-15.8098061254551</v>
       </c>
       <c r="DO2" t="n">
-        <v>19.2050760956897</v>
+        <v>18.2963567830811</v>
       </c>
       <c r="DP2" t="n">
-        <v>16.4705041061466</v>
+        <v>15.0732675464248</v>
       </c>
       <c r="DQ2" t="n">
-        <v>18.8559325581421</v>
+        <v>19.7294232478969</v>
       </c>
       <c r="DR2" t="n">
-        <v>28.2771692464267</v>
+        <v>27.9032902362492</v>
       </c>
       <c r="DS2" t="n">
-        <v>4.82072467429822</v>
+        <v>4.39896416216797</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.73622805813603</v>
+        <v>-0.826554610804909</v>
       </c>
       <c r="DU2" t="n">
-        <v>4.39875102827986</v>
+        <v>0.579795035332733</v>
       </c>
       <c r="DV2" t="n">
-        <v>7.06041067510768</v>
+        <v>6.81126623235895</v>
       </c>
       <c r="DW2" t="n">
-        <v>28.1759851751264</v>
+        <v>27.6642923087522</v>
       </c>
       <c r="DX2" t="n">
-        <v>-84.9653285823</v>
+        <v>-86.8934521772286</v>
       </c>
       <c r="DY2" t="n">
-        <v>25.5557755499369</v>
+        <v>25.2669851124396</v>
       </c>
       <c r="DZ2" t="n">
-        <v>5.58440803950573</v>
+        <v>5.384730572469</v>
       </c>
       <c r="EA2" t="n">
-        <v>-66.5735139074686</v>
+        <v>-81.9197071391201</v>
       </c>
       <c r="EB2" t="n">
-        <v>25.8594449468929</v>
+        <v>24.7925319421819</v>
       </c>
       <c r="EC2" t="n">
-        <v>22.3618082229734</v>
+        <v>20.3739361286161</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.04132440380037</v>
+        <v>1.90789939562003</v>
       </c>
       <c r="EE2" t="n">
-        <v>-8.0939441851856</v>
+        <v>-8.01622879592053</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.62178127175625</v>
+        <v>1.1951415435125</v>
       </c>
       <c r="EG2" t="n">
-        <v>28.7522856555228</v>
+        <v>28.4305871292878</v>
       </c>
       <c r="EH2" t="n">
-        <v>-20.7390368740826</v>
+        <v>-25.4242787662448</v>
       </c>
       <c r="EI2" t="n">
-        <v>20.5669936514656</v>
+        <v>17.7988087862622</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.641859847009599</v>
+        <v>-5.42252795774294</v>
       </c>
       <c r="EK2" t="n">
-        <v>-88.3403591644323</v>
+        <v>-99.7718557339451</v>
       </c>
       <c r="EL2" t="n">
-        <v>28.9509833689561</v>
+        <v>28.615888010481</v>
       </c>
       <c r="EM2" t="n">
-        <v>24.7045057707612</v>
+        <v>23.5536773874663</v>
       </c>
       <c r="EN2" t="n">
-        <v>22.6137706634126</v>
+        <v>21.6169615463542</v>
       </c>
       <c r="EO2" t="n">
-        <v>-9.64605055008452</v>
+        <v>-12.0105168103531</v>
       </c>
       <c r="EP2" t="n">
-        <v>-28.1290759065875</v>
+        <v>-29.3552562755345</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-26.5214726226211</v>
+        <v>-30.3988081168298</v>
       </c>
       <c r="ER2" t="n">
-        <v>23.6703628795576</v>
+        <v>23.010667263134</v>
       </c>
       <c r="ES2" t="n">
-        <v>-7.74921288354445</v>
+        <v>-11.5525750295177</v>
       </c>
       <c r="ET2" t="n">
-        <v>-20.0951644900848</v>
+        <v>-23.4468614088157</v>
       </c>
       <c r="EU2" t="n">
-        <v>-51.1767885455648</v>
+        <v>-62.8203483256544</v>
       </c>
       <c r="EV2" t="n">
-        <v>21.7725396319019</v>
+        <v>20.1920935960056</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.905007265749436</v>
+        <v>-2.6345317847868</v>
       </c>
       <c r="EX2" t="n">
-        <v>15.7935747921892</v>
+        <v>14.371441627497</v>
       </c>
       <c r="EY2" t="n">
-        <v>18.0760623041624</v>
+        <v>16.4667659187996</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-48.683407599224</v>
+        <v>-47.8720108319784</v>
       </c>
       <c r="FA2" t="n">
-        <v>23.5189424035435</v>
+        <v>22.4353960116384</v>
       </c>
       <c r="FB2" t="n">
-        <v>-18.2713682778314</v>
+        <v>-15.8103846053998</v>
       </c>
       <c r="FC2" t="n">
-        <v>17.1293079229142</v>
+        <v>16.8720667471256</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.0615548689521042</v>
+        <v>0.235714218830335</v>
       </c>
       <c r="FE2" t="n">
-        <v>16.1258349846124</v>
+        <v>14.6138292959946</v>
       </c>
       <c r="FF2" t="n">
-        <v>24.3890770172706</v>
+        <v>23.0773622545538</v>
       </c>
       <c r="FG2" t="n">
-        <v>10.8408714069349</v>
+        <v>9.09383745272029</v>
       </c>
       <c r="FH2" t="n">
-        <v>-126.690461793598</v>
+        <v>-138.977929657049</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.85335321244789</v>
+        <v>-4.34071085886384</v>
       </c>
       <c r="FJ2" t="n">
-        <v>3.52162886140105</v>
+        <v>4.62655574721735</v>
       </c>
       <c r="FK2" t="n">
-        <v>-28.4406816086691</v>
+        <v>-28.7499139873543</v>
       </c>
       <c r="FL2" t="n">
-        <v>28.4671017741904</v>
+        <v>28.1527205788701</v>
       </c>
       <c r="FM2" t="n">
-        <v>-91.9471253408784</v>
+        <v>-108.957606098566</v>
       </c>
       <c r="FN2" t="n">
-        <v>25.6089293600515</v>
+        <v>24.6018395149457</v>
       </c>
       <c r="FO2" t="n">
-        <v>21.5198637191636</v>
+        <v>19.4492376925801</v>
       </c>
       <c r="FP2" t="n">
-        <v>-127.816783021064</v>
+        <v>-134.951667914683</v>
       </c>
       <c r="FQ2" t="n">
-        <v>14.1291895091785</v>
+        <v>15.086641683051</v>
       </c>
       <c r="FR2" t="n">
-        <v>26.3351024143372</v>
+        <v>25.595971913651</v>
       </c>
       <c r="FS2" t="n">
-        <v>28.7430044332473</v>
+        <v>28.4797332098998</v>
       </c>
       <c r="FT2" t="n">
-        <v>19.6072154537689</v>
+        <v>18.9149040065271</v>
       </c>
       <c r="FU2" t="n">
-        <v>29.6142631139816</v>
+        <v>29.5097608352992</v>
       </c>
       <c r="FV2" t="n">
-        <v>-38.3039966069726</v>
+        <v>-39.1006669173056</v>
       </c>
       <c r="FW2" t="n">
-        <v>-5.43252171925104</v>
+        <v>-4.04010538475558</v>
       </c>
       <c r="FX2" t="n">
-        <v>28.5010655536616</v>
+        <v>28.0941099346133</v>
       </c>
       <c r="FY2" t="n">
-        <v>24.6941528530317</v>
+        <v>23.6323988687711</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-1.16026783952091</v>
+        <v>-3.62102342186766</v>
       </c>
       <c r="GA2" t="n">
-        <v>-14.6634753463855</v>
+        <v>-13.0559161194007</v>
       </c>
       <c r="GB2" t="n">
-        <v>-28.386915685327</v>
+        <v>-28.9816897899008</v>
       </c>
       <c r="GC2" t="n">
-        <v>-11.439833689429</v>
+        <v>-13.6918202610299</v>
       </c>
       <c r="GD2" t="n">
-        <v>22.4017204019312</v>
+        <v>21.4051291133154</v>
       </c>
       <c r="GE2" t="n">
-        <v>-63.9819732810083</v>
+        <v>-63.557402369737</v>
       </c>
       <c r="GF2" t="n">
-        <v>-7.69176196915858</v>
+        <v>-9.78741557021294</v>
       </c>
       <c r="GG2" t="n">
-        <v>19.1099058706232</v>
+        <v>15.2868500375431</v>
       </c>
       <c r="GH2" t="n">
-        <v>-21.5282295577157</v>
+        <v>-24.1531538230201</v>
       </c>
       <c r="GI2" t="n">
-        <v>28.8363922287184</v>
+        <v>28.5180243698617</v>
       </c>
       <c r="GJ2" t="n">
-        <v>21.7531959379866</v>
+        <v>20.0208864756277</v>
       </c>
       <c r="GK2" t="n">
-        <v>6.50153719520144</v>
+        <v>5.88290377458992</v>
       </c>
       <c r="GL2" t="n">
-        <v>18.1264937368047</v>
+        <v>15.945296032482</v>
       </c>
       <c r="GM2" t="n">
-        <v>-59.6300425327581</v>
+        <v>-71.7731888274116</v>
       </c>
       <c r="GN2" t="n">
-        <v>25.7099804444708</v>
+        <v>25.0956436050444</v>
       </c>
       <c r="GO2" t="n">
-        <v>17.8998840648696</v>
+        <v>16.6931894357304</v>
       </c>
       <c r="GP2" t="n">
-        <v>-78.1430946963705</v>
+        <v>-81.8838090261656</v>
       </c>
       <c r="GQ2" t="n">
-        <v>14.5991362501725</v>
+        <v>13.1642131681171</v>
       </c>
       <c r="GR2" t="n">
-        <v>-1.64286680154703</v>
+        <v>-3.7996755735338</v>
       </c>
       <c r="GS2" t="n">
-        <v>25.0371992515042</v>
+        <v>24.7381431611734</v>
       </c>
       <c r="GT2" t="n">
-        <v>-41.2563666495105</v>
+        <v>-42.0770446771337</v>
       </c>
       <c r="GU2" t="n">
-        <v>27.2049538883106</v>
+        <v>26.490412442989</v>
       </c>
       <c r="GV2" t="n">
-        <v>28.205623787027</v>
+        <v>27.7257759210469</v>
       </c>
       <c r="GW2" t="n">
-        <v>1.77562350211701</v>
+        <v>-0.771361017389257</v>
       </c>
       <c r="GX2" t="n">
-        <v>10.5809088156602</v>
+        <v>10.0010181217164</v>
       </c>
       <c r="GY2" t="n">
-        <v>-76.4817877509607</v>
+        <v>-81.9407169309466</v>
       </c>
       <c r="GZ2" t="n">
-        <v>4.06244264887512</v>
+        <v>1.03872832907618</v>
       </c>
       <c r="HA2" t="n">
-        <v>15.8035862653178</v>
+        <v>15.2370865177949</v>
       </c>
       <c r="HB2" t="n">
-        <v>28.5846209953879</v>
+        <v>28.3497773117071</v>
       </c>
       <c r="HC2" t="n">
-        <v>-3.53587200126826</v>
+        <v>-6.04240961182326</v>
       </c>
       <c r="HD2" t="n">
-        <v>15.5126881502137</v>
+        <v>14.5926082990743</v>
       </c>
       <c r="HE2" t="n">
-        <v>25.5268680390496</v>
+        <v>24.4941154621254</v>
       </c>
       <c r="HF2" t="n">
-        <v>15.2352742570804</v>
+        <v>14.8664442619411</v>
       </c>
       <c r="HG2" t="n">
-        <v>19.4991449239945</v>
+        <v>17.9984276313144</v>
       </c>
       <c r="HH2" t="n">
-        <v>26.565690627399</v>
+        <v>25.7997171250771</v>
       </c>
       <c r="HI2" t="n">
-        <v>-10.7529952450791</v>
+        <v>-15.1344396611386</v>
       </c>
       <c r="HJ2" t="n">
-        <v>25.5483326693031</v>
+        <v>24.3839397713783</v>
       </c>
       <c r="HK2" t="n">
-        <v>23.162259349617</v>
+        <v>21.6430911170103</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,31 +32,49 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;C+NR+GCS&lt;&lt; vs. C+NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: C+NR vs. &gt;&gt;GCS+NR&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: NR vs. &gt;&gt;NR+C+GCS&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;NR+GCS&lt;&lt; vs. NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;NR+C&lt;&lt; vs. NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;Left&lt;&lt; vs. Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;Left+GCS&lt;&lt; vs. Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: random programs &gt;&gt;A&lt;&lt; vs. B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: random programs &gt;&gt;A+GCS&lt;&lt; vs. B</t>
+    <t xml:space="preserve">econ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax1: National redistribution scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax2: Wealth tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign1: Global climate scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign2: Global tax on millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign3: Global democratic assembly on climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign4: Doubling foreign aid</t>
   </si>
 </sst>
 </file>
@@ -413,19 +431,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.802816901408451</v>
+        <v>0.616858237547893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.718232044198895</v>
+        <v>0.676258992805755</v>
       </c>
       <c r="D2" t="n">
-        <v>0.778688524590164</v>
+        <v>0.960199004975124</v>
       </c>
       <c r="E2" t="n">
-        <v>0.695652173913043</v>
+        <v>0.953307392996109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.540890072270825</v>
+        <v>0.655973451327434</v>
       </c>
     </row>
     <row r="3">
@@ -433,19 +451,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.485714285714286</v>
+        <v>0.845559845559846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.527777777777778</v>
+        <v>0.844594594594595</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65625</v>
+        <v>0.869158878504673</v>
       </c>
       <c r="E3" t="n">
-        <v>0.461538461538462</v>
+        <v>0.92057761732852</v>
       </c>
       <c r="F3" t="n">
-        <v>0.490683229813665</v>
+        <v>0.840262582056893</v>
       </c>
     </row>
     <row r="4">
@@ -453,19 +471,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.783783783783784</v>
+        <v>0.539748953974895</v>
       </c>
       <c r="C4" t="n">
-        <v>0.703703703703704</v>
+        <v>0.815181518151815</v>
       </c>
       <c r="D4" t="n">
-        <v>0.821428571428571</v>
+        <v>0.802690582959641</v>
       </c>
       <c r="E4" t="n">
-        <v>0.857142857142857</v>
+        <v>0.61003861003861</v>
       </c>
       <c r="F4" t="n">
-        <v>0.538805970149254</v>
+        <v>0.803474484256243</v>
       </c>
     </row>
     <row r="5">
@@ -473,19 +491,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.823529411764706</v>
+        <v>0.895752895752896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.808510638297872</v>
+        <v>0.807817589576547</v>
       </c>
       <c r="D5" t="n">
-        <v>0.882352941176471</v>
+        <v>0.934579439252336</v>
       </c>
       <c r="E5" t="n">
-        <v>0.875</v>
+        <v>0.881294964028777</v>
       </c>
       <c r="F5" t="n">
-        <v>0.55</v>
+        <v>0.88628762541806</v>
       </c>
     </row>
     <row r="6">
@@ -493,19 +511,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.861111111111111</v>
+        <v>0.686507936507937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.863636363636364</v>
+        <v>0.762345679012346</v>
       </c>
       <c r="D6" t="n">
-        <v>0.785714285714286</v>
+        <v>0.762931034482759</v>
       </c>
       <c r="E6" t="n">
-        <v>0.909090909090909</v>
+        <v>0.807547169811321</v>
       </c>
       <c r="F6" t="n">
-        <v>0.609160305343511</v>
+        <v>0.574786324786325</v>
       </c>
     </row>
     <row r="7">
@@ -513,19 +531,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.694444444444444</v>
+        <v>0.697247706422018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.53921568627451</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="D7" t="n">
-        <v>0.736842105263158</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="E7" t="n">
-        <v>0.36</v>
+        <v>0.428044280442804</v>
       </c>
       <c r="F7" t="n">
-        <v>0.53353428786737</v>
+        <v>0.598941798941799</v>
       </c>
     </row>
     <row r="8">
@@ -533,19 +551,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.742857142857143</v>
+        <v>0.65843621399177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.531645569620253</v>
+        <v>0.79672131147541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.784615384615385</v>
+        <v>0.900473933649289</v>
       </c>
       <c r="E8" t="n">
-        <v>0.523809523809524</v>
+        <v>0.786290322580645</v>
       </c>
       <c r="F8" t="n">
-        <v>0.538402457757296</v>
+        <v>0.695966907962771</v>
       </c>
     </row>
     <row r="9">
@@ -553,19 +571,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.471830985915493</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="C9" t="n">
-        <v>0.56353591160221</v>
+        <v>0.86084142394822</v>
       </c>
       <c r="D9" t="n">
-        <v>0.508196721311475</v>
+        <v>0.800947867298578</v>
       </c>
       <c r="E9" t="n">
-        <v>0.565217391304348</v>
+        <v>0.812</v>
       </c>
       <c r="F9" t="n">
-        <v>0.523291925465838</v>
+        <v>0.813928182807399</v>
       </c>
     </row>
     <row r="10">
@@ -573,19 +591,139 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.647887323943662</v>
+        <v>0.581395348837209</v>
       </c>
       <c r="C10" t="n">
-        <v>0.640883977900553</v>
+        <v>0.533546325878594</v>
       </c>
       <c r="D10" t="n">
-        <v>0.622950819672131</v>
+        <v>0.623853211009174</v>
       </c>
       <c r="E10" t="n">
-        <v>0.608695652173913</v>
+        <v>0.690839694656489</v>
       </c>
       <c r="F10" t="n">
-        <v>0.585403726708075</v>
+        <v>0.619895287958115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.79746835443038</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.776073619631902</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.829596412556054</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.665938864628821</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.760504201680672</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.778156996587031</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.831683168316832</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.858921161825726</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.798553719008264</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.839449541284404</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8561872909699</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.854077253218884</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.772549019607843</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.717127071823204</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.780392156862745</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.853820598006645</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.847290640394089</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.792307692307692</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.793926247288503</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.788235294117647</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.777003484320557</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.84549356223176</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.743295019157088</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.725690890481064</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.763565891472868</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.752380952380952</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.722943722943723</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.493877551020408</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5917225950783</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,49 +32,7 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">econ1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">econ2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">econ3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">econ4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax1: National redistribution scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax2: Wealth tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foreign1: Global climate scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foreign2: Global tax on millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foreign3: Global democratic assembly on climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foreign4: Doubling foreign aid</t>
+    <t xml:space="preserve">Preferred share of global tax for low-income</t>
   </si>
 </sst>
 </file>
@@ -431,300 +389,18 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.616858237547893</v>
+        <v>0.937888198757764</v>
       </c>
       <c r="C2" t="n">
-        <v>0.676258992805755</v>
+        <v>0.934010152284264</v>
       </c>
       <c r="D2" t="n">
-        <v>0.960199004975124</v>
+        <v>0.935064935064935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.953307392996109</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.655973451327434</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.845559845559846</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.844594594594595</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.869158878504673</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.92057761732852</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.840262582056893</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.539748953974895</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.815181518151815</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.802690582959641</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.61003861003861</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.803474484256243</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.895752895752896</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.807817589576547</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.934579439252336</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.881294964028777</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.88628762541806</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.686507936507937</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.762345679012346</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.762931034482759</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.807547169811321</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.574786324786325</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.697247706422018</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.545454545454545</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.684210526315789</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.428044280442804</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.598941798941799</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.65843621399177</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.79672131147541</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.900473933649289</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.786290322580645</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.695966907962771</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.844444444444444</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.86084142394822</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.800947867298578</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.812</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.813928182807399</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.581395348837209</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.533546325878594</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.623853211009174</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.690839694656489</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.619895287958115</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.79746835443038</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.776073619631902</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.829596412556054</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.665938864628821</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.760504201680672</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.778156996587031</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.831683168316832</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.858921161825726</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.798553719008264</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.839449541284404</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8561872909699</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.854077253218884</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.772549019607843</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.717127071823204</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.780392156862745</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.853820598006645</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.847290640394089</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.792307692307692</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.793926247288503</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.788235294117647</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.777003484320557</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.84549356223176</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.743295019157088</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.725690890481064</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.763565891472868</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.752380952380952</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.722943722943723</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.493877551020408</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.5917225950783</v>
-      </c>
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,7 +32,10 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred share of global tax for low-income</t>
+    <t xml:space="preserve">Belief about GCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about NR</t>
   </si>
 </sst>
 </file>
@@ -389,18 +392,40 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.937888198757764</v>
+        <v>60.941935483871</v>
       </c>
       <c r="C2" t="n">
-        <v>0.934010152284264</v>
+        <v>55.1875825627477</v>
       </c>
       <c r="D2" t="n">
-        <v>0.935064935064935</v>
+        <v>63.3075506445672</v>
       </c>
       <c r="E2" t="n">
-        <v>0.882352941176471</v>
-      </c>
-      <c r="F2"/>
+        <v>57.4937888198758</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50.9511918274688</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>60.3854838709677</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.672391017173</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.6279926335175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>59.3400621118012</v>
+      </c>
+      <c r="F3" t="n">
+        <v>54.1278849791903</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,10 +32,28 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Belief about GCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about NR</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C+NR+GCS preferred to C+NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCS+NR preferred to C+NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+C+GCS preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+GCS preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+C preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random programs: with GCS preferred to without</t>
   </si>
 </sst>
 </file>
@@ -392,19 +410,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>60.941935483871</v>
+        <v>0.781995380252627</v>
       </c>
       <c r="C2" t="n">
-        <v>55.1875825627477</v>
+        <v>0.712010897427332</v>
       </c>
       <c r="D2" t="n">
-        <v>63.3075506445672</v>
+        <v>0.827767423293579</v>
       </c>
       <c r="E2" t="n">
-        <v>57.4937888198758</v>
+        <v>0.722976555380657</v>
       </c>
       <c r="F2" t="n">
-        <v>50.9511918274688</v>
+        <v>0.533050523673449</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +430,139 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>60.3854838709677</v>
+        <v>0.781888355211445</v>
       </c>
       <c r="C3" t="n">
-        <v>52.672391017173</v>
+        <v>0.711660781652381</v>
       </c>
       <c r="D3" t="n">
-        <v>62.6279926335175</v>
+        <v>0.801845843811584</v>
       </c>
       <c r="E3" t="n">
-        <v>59.3400621118012</v>
+        <v>0.662615164948802</v>
       </c>
       <c r="F3" t="n">
-        <v>54.1278849791903</v>
+        <v>0.540334377126678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.506460022581565</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.557637736806466</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.558863995749703</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.487015877061265</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.466267232447944</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.857219385761349</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.751394618919885</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.838683821949252</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.723608598723154</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.547146463744832</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.761156408027965</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.762099934805461</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.784971497489425</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.746088878052818</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.551530613317319</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.881762510881357</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.823710192520629</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.869627482347471</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.845000327812302</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.621563662115855</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.620661959757824</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.589964373357525</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.650896609420891</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.559546608035282</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.583564934623285</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.447523134702293</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.539493316186416</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.54411820555855</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.485871433018411</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.533925920664392</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,31 +35,22 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C+NR+GCS preferred to C+NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS+NR preferred to C+NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+C+GCS preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+GCS preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+C preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random programs: with GCS preferred to without</t>
+    <t xml:space="preserve">Preferred foreign aid is higher than current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid is lower than current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid is higher than perceived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid is lower than perceived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports increased foreign aid (incl. with conditions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reduced foreign aid</t>
   </si>
 </sst>
 </file>
@@ -404,165 +401,138 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.781995380252627</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.712010897427332</v>
+        <v>0.583443944030363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.827767423293579</v>
+        <v>0.749645016270873</v>
       </c>
       <c r="E2" t="n">
-        <v>0.722976555380657</v>
+        <v>0.586593562593609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.533050523673449</v>
+        <v>0.641535775870434</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.383944755701105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.781888355211445</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>0.711660781652381</v>
+        <v>0.159388231940962</v>
       </c>
       <c r="D3" t="n">
-        <v>0.801845843811584</v>
+        <v>0.151979692570815</v>
       </c>
       <c r="E3" t="n">
-        <v>0.662615164948802</v>
+        <v>0.183313026569603</v>
       </c>
       <c r="F3" t="n">
-        <v>0.540334377126678</v>
+        <v>0.179854411018564</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.120375836006707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.506460022581565</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B4"/>
       <c r="C4" t="n">
-        <v>0.557637736806466</v>
+        <v>0.531554053118514</v>
       </c>
       <c r="D4" t="n">
-        <v>0.558863995749703</v>
+        <v>0.61254428469078</v>
       </c>
       <c r="E4" t="n">
-        <v>0.487015877061265</v>
+        <v>0.614173438735866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.466267232447944</v>
+        <v>0.533634360745338</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.344095062780298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.857219385761349</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5"/>
       <c r="C5" t="n">
-        <v>0.751394618919885</v>
+        <v>0.212666811996959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.838683821949252</v>
+        <v>0.212745142850656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.723608598723154</v>
+        <v>0.208397587400629</v>
       </c>
       <c r="F5" t="n">
-        <v>0.547146463744832</v>
+        <v>0.223289605183078</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.210507923245896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.761156408027965</v>
+        <v>0.588291214300699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.762099934805461</v>
+        <v>0.62062568525634</v>
       </c>
       <c r="D6" t="n">
-        <v>0.784971497489425</v>
+        <v>0.6224526766782</v>
       </c>
       <c r="E6" t="n">
-        <v>0.746088878052818</v>
+        <v>0.681172492315443</v>
       </c>
       <c r="F6" t="n">
-        <v>0.551530613317319</v>
+        <v>0.712886742501885</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.472808316632176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.881762510881357</v>
+        <v>0.183031300296115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.823710192520629</v>
+        <v>0.150615860031759</v>
       </c>
       <c r="D7" t="n">
-        <v>0.869627482347471</v>
+        <v>0.0994033756987271</v>
       </c>
       <c r="E7" t="n">
-        <v>0.845000327812302</v>
+        <v>0.105536405872812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.621563662115855</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.620661959757824</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.589964373357525</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.650896609420891</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.559546608035282</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.583564934623285</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.447523134702293</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.539493316186416</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.54411820555855</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.485871433018411</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.533925920664392</v>
+        <v>0.0735719273898395</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.315262309233012</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,22 +35,13 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred foreign aid is higher than current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid is lower than current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid is higher than perceived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid is lower than perceived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports increased foreign aid (incl. with conditions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reduced foreign aid</t>
+    <t xml:space="preserve">Income inequality in [Country]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global poverty</t>
   </si>
 </sst>
 </file>
@@ -409,130 +400,69 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="n">
+        <v>0.2994332335184</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.583443944030363</v>
+        <v>0.254148347433842</v>
       </c>
       <c r="D2" t="n">
-        <v>0.749645016270873</v>
+        <v>0.268666480053633</v>
       </c>
       <c r="E2" t="n">
-        <v>0.586593562593609</v>
+        <v>0.257657472729508</v>
       </c>
       <c r="F2" t="n">
-        <v>0.641535775870434</v>
+        <v>0.175886196374079</v>
       </c>
       <c r="G2" t="n">
-        <v>0.383944755701105</v>
+        <v>0.260367060695734</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>0.291697721782691</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.159388231940962</v>
+        <v>0.157407854257995</v>
       </c>
       <c r="D3" t="n">
-        <v>0.151979692570815</v>
+        <v>0.136811549208597</v>
       </c>
       <c r="E3" t="n">
-        <v>0.183313026569603</v>
+        <v>0.151908456483685</v>
       </c>
       <c r="F3" t="n">
-        <v>0.179854411018564</v>
+        <v>0.15158979255946</v>
       </c>
       <c r="G3" t="n">
-        <v>0.120375836006707</v>
+        <v>0.18288346956735</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>0.270076215037658</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.531554053118514</v>
+        <v>0.168682968440019</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61254428469078</v>
+        <v>0.149885012832016</v>
       </c>
       <c r="E4" t="n">
-        <v>0.614173438735866</v>
+        <v>0.150795379793829</v>
       </c>
       <c r="F4" t="n">
-        <v>0.533634360745338</v>
+        <v>0.121219500590886</v>
       </c>
       <c r="G4" t="n">
-        <v>0.344095062780298</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="n">
-        <v>0.212666811996959</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.212745142850656</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.208397587400629</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.223289605183078</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.210507923245896</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.588291214300699</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.62062568525634</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6224526766782</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.681172492315443</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.712886742501885</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.472808316632176</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.183031300296115</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.150615860031759</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0994033756987271</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.105536405872812</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0735719273898395</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.315262309233012</v>
+        <v>0.218408190196373</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,13 +35,16 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Income inequality in [Country]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global poverty</t>
+    <t xml:space="preserve">Actual foreign aid (in % of public spending)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid (no info)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid (with info)</t>
   </si>
 </sst>
 </file>
@@ -401,68 +404,85 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2994332335184</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.254148347433842</v>
+        <v>1.13360414048105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.268666480053633</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.257657472729508</v>
+        <v>1.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.175886196374079</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.260367060695734</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.291697721782691</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>0.157407854257995</v>
+        <v>2.7859023648276</v>
       </c>
       <c r="D3" t="n">
-        <v>0.136811549208597</v>
+        <v>2.51515863356482</v>
       </c>
       <c r="E3" t="n">
-        <v>0.151908456483685</v>
+        <v>2.8202582796144</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15158979255946</v>
+        <v>2.57279975627254</v>
       </c>
       <c r="G3" t="n">
-        <v>0.18288346956735</v>
+        <v>3.15256325507764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.270076215037658</v>
-      </c>
+      <c r="B4"/>
       <c r="C4" t="n">
-        <v>0.168682968440019</v>
+        <v>3.78943897123585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.149885012832016</v>
+        <v>4.5983643916985</v>
       </c>
       <c r="E4" t="n">
-        <v>0.150795379793829</v>
+        <v>4.38422171858309</v>
       </c>
       <c r="F4" t="n">
-        <v>0.121219500590886</v>
+        <v>2.92394859583192</v>
       </c>
       <c r="G4" t="n">
-        <v>0.218408190196373</v>
+        <v>3.17663302696701</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="n">
+        <v>2.5668239769631</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.30899685462196</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.83148888644328</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.02657538511332</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.49817866334461</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -41,10 +41,10 @@
     <t xml:space="preserve">Belief about foreign aid</t>
   </si>
   <si>
+    <t xml:space="preserve">Preferred foreign aid (with info)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preferred foreign aid (no info)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid (with info)</t>
   </si>
 </sst>
 </file>
@@ -449,19 +449,19 @@
       </c>
       <c r="B4"/>
       <c r="C4" t="n">
-        <v>3.78943897123585</v>
+        <v>2.5668239769631</v>
       </c>
       <c r="D4" t="n">
-        <v>4.5983643916985</v>
+        <v>3.30899685462196</v>
       </c>
       <c r="E4" t="n">
-        <v>4.38422171858309</v>
+        <v>2.83148888644328</v>
       </c>
       <c r="F4" t="n">
-        <v>2.92394859583192</v>
+        <v>2.02657538511332</v>
       </c>
       <c r="G4" t="n">
-        <v>3.17663302696701</v>
+        <v>2.49817866334461</v>
       </c>
     </row>
     <row r="5">
@@ -470,19 +470,19 @@
       </c>
       <c r="B5"/>
       <c r="C5" t="n">
-        <v>2.5668239769631</v>
+        <v>3.78943897123585</v>
       </c>
       <c r="D5" t="n">
-        <v>3.30899685462196</v>
+        <v>4.5983643916985</v>
       </c>
       <c r="E5" t="n">
-        <v>2.83148888644328</v>
+        <v>4.38422171858309</v>
       </c>
       <c r="F5" t="n">
-        <v>2.02657538511332</v>
+        <v>2.92394859583192</v>
       </c>
       <c r="G5" t="n">
-        <v>2.49817866334461</v>
+        <v>3.17663302696701</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,16 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Actual foreign aid (in % of public spending)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid (with info)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid (no info)</t>
+    <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
   </si>
 </sst>
 </file>
@@ -404,85 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.13360414048105</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="n">
-        <v>2.7859023648276</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.51515863356482</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.8202582796144</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.57279975627254</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.15256325507764</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4" t="n">
-        <v>2.5668239769631</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.30899685462196</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.83148888644328</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.02657538511332</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.49817866334461</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="n">
-        <v>3.78943897123585</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.5983643916985</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.38422171858309</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.92394859583192</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.17663302696701</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,22 +35,37 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+GCS preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C+NR+GCS preferred to C+NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+C preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS+NR preferred to C+NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+C+GCS preferred to NR</t>
+    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National tax on millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global tax on millionaires</t>
   </si>
 </sst>
 </file>
@@ -410,22 +425,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533050523673449</v>
+        <v>0.331081431764215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.752698343735098</v>
+        <v>0.214997230378873</v>
       </c>
       <c r="D2" t="n">
-        <v>0.805398319468679</v>
+        <v>0.205893663684619</v>
       </c>
       <c r="E2" t="n">
-        <v>0.708750845625959</v>
+        <v>0.230529272485978</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813439832560037</v>
+        <v>0.160869377295874</v>
       </c>
       <c r="G2" t="n">
-        <v>0.745700372884844</v>
+        <v>0.218561103450746</v>
       </c>
     </row>
     <row r="3">
@@ -433,22 +448,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.551530613317319</v>
+        <v>0.245438827943175</v>
       </c>
       <c r="C3" t="n">
-        <v>0.762566643428049</v>
+        <v>0.142210779925757</v>
       </c>
       <c r="D3" t="n">
-        <v>0.794500153667354</v>
+        <v>0.134715797736363</v>
       </c>
       <c r="E3" t="n">
-        <v>0.746330102375747</v>
+        <v>0.149097644338885</v>
       </c>
       <c r="F3" t="n">
-        <v>0.768621148374205</v>
+        <v>0.102323826010331</v>
       </c>
       <c r="G3" t="n">
-        <v>0.773450102052741</v>
+        <v>0.150861418718642</v>
       </c>
     </row>
     <row r="4">
@@ -456,22 +471,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.540334377126678</v>
+        <v>0.298559559929212</v>
       </c>
       <c r="C4" t="n">
-        <v>0.732801058256552</v>
+        <v>0.180771882762578</v>
       </c>
       <c r="D4" t="n">
-        <v>0.788948273734533</v>
+        <v>0.166797125438614</v>
       </c>
       <c r="E4" t="n">
-        <v>0.709122563432032</v>
+        <v>0.16140570865715</v>
       </c>
       <c r="F4" t="n">
-        <v>0.798611869881155</v>
+        <v>0.171379577739228</v>
       </c>
       <c r="G4" t="n">
-        <v>0.697707624460728</v>
+        <v>0.216877029671525</v>
       </c>
     </row>
     <row r="5">
@@ -479,22 +494,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.621563662115855</v>
+        <v>0.368368758804159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.851093062431084</v>
+        <v>0.328756256668396</v>
       </c>
       <c r="D5" t="n">
-        <v>0.891209997097121</v>
+        <v>0.319708222756794</v>
       </c>
       <c r="E5" t="n">
-        <v>0.836163608902924</v>
+        <v>0.401280137274853</v>
       </c>
       <c r="F5" t="n">
-        <v>0.85553619504808</v>
+        <v>0.268947610289567</v>
       </c>
       <c r="G5" t="n">
-        <v>0.860329350730786</v>
+        <v>0.258310509771515</v>
       </c>
     </row>
     <row r="6">
@@ -502,22 +517,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.466267232447944</v>
+        <v>0.251422961462162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.528521467316923</v>
+        <v>0.184457776459555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54298320618301</v>
+        <v>0.199523497439403</v>
       </c>
       <c r="E6" t="n">
-        <v>0.55747359485376</v>
+        <v>0.189675687341376</v>
       </c>
       <c r="F6" t="n">
-        <v>0.521779060704512</v>
+        <v>0.149537130581377</v>
       </c>
       <c r="G6" t="n">
-        <v>0.506395266498014</v>
+        <v>0.171945379535019</v>
       </c>
     </row>
     <row r="7">
@@ -525,22 +540,137 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.547146463744832</v>
+        <v>0.241907766972226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.78738474277188</v>
+        <v>0.18138699512052</v>
       </c>
       <c r="D7" t="n">
-        <v>0.865856512542897</v>
+        <v>0.277608891118349</v>
       </c>
       <c r="E7" t="n">
-        <v>0.753877610588178</v>
+        <v>0.189134077508267</v>
       </c>
       <c r="F7" t="n">
-        <v>0.79677790782055</v>
+        <v>0.114016496093448</v>
       </c>
       <c r="G7" t="n">
-        <v>0.769605840282518</v>
+        <v>0.109231872232074</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.247355177108767</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.141127876848021</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.137526351283508</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1496942844669</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.143738010819852</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1104976972685</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.271649866502464</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.101103162200739</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0847751046034548</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.117119649382052</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0690670932714941</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0986129995148601</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.389212451347974</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.27600321390555</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.284599095614714</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.29249757255602</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.232016696285624</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.24734545597018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.127290422486703</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.167479261168304</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.121010850508594</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0707602214232746</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.102327339008448</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.134752399486368</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.132719085349421</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.133281599873724</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0894714761792316</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.141170249987403</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,37 +35,49 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National tax on millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global tax on millionaires</t>
+    <t xml:space="preserve">econ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ2: [Higher minimum wage] (DE: Bürgerversicherung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate2: Thermal insulation plan (US: also transport)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate3: Ban the sale of new combustion-engine cars by 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax1: National redistribution scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax2: Wealth tax (ES: raise tax on top incomes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign1: Global climate scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign2: Global tax on millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign3: Global democratic assembly on climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign4: Doubling foreign aid</t>
   </si>
 </sst>
 </file>
@@ -425,22 +437,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.331081431764215</v>
+        <v>0.637278815054894</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214997230378873</v>
+        <v>0.784703991196193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.205893663684619</v>
+        <v>0.611744452400758</v>
       </c>
       <c r="E2" t="n">
-        <v>0.230529272485978</v>
+        <v>0.667695051667612</v>
       </c>
       <c r="F2" t="n">
-        <v>0.160869377295874</v>
+        <v>0.977546353860228</v>
       </c>
       <c r="G2" t="n">
-        <v>0.218561103450746</v>
+        <v>0.954631773458379</v>
       </c>
     </row>
     <row r="3">
@@ -448,22 +460,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245438827943175</v>
+        <v>0.832120665866449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.142210779925757</v>
+        <v>0.857642010722545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.134715797736363</v>
+        <v>0.846807053986467</v>
       </c>
       <c r="E3" t="n">
-        <v>0.149097644338885</v>
+        <v>0.837647337784504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.102323826010331</v>
+        <v>0.889338629738099</v>
       </c>
       <c r="G3" t="n">
-        <v>0.150861418718642</v>
+        <v>0.888893049032353</v>
       </c>
     </row>
     <row r="4">
@@ -471,22 +483,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.298559559929212</v>
+        <v>0.80652592058503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.180771882762578</v>
+        <v>0.693050275422432</v>
       </c>
       <c r="D4" t="n">
-        <v>0.166797125438614</v>
+        <v>0.503742867176457</v>
       </c>
       <c r="E4" t="n">
-        <v>0.16140570865715</v>
+        <v>0.777502347638882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.171379577739228</v>
+        <v>0.802340698256805</v>
       </c>
       <c r="G4" t="n">
-        <v>0.216877029671525</v>
+        <v>0.679716366597699</v>
       </c>
     </row>
     <row r="5">
@@ -494,22 +506,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.368368758804159</v>
+        <v>0.876333336588512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.328756256668396</v>
+        <v>0.857678525091347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.319708222756794</v>
+        <v>0.913418110038868</v>
       </c>
       <c r="E5" t="n">
-        <v>0.401280137274853</v>
+        <v>0.78969756309767</v>
       </c>
       <c r="F5" t="n">
-        <v>0.268947610289567</v>
+        <v>0.900889442406317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.258310509771515</v>
+        <v>0.852433272709463</v>
       </c>
     </row>
     <row r="6">
@@ -517,22 +529,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.251422961462162</v>
+        <v>0.56883111655465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.184457776459555</v>
+        <v>0.747363908888198</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199523497439403</v>
+        <v>0.693734337700598</v>
       </c>
       <c r="E6" t="n">
-        <v>0.189675687341376</v>
+        <v>0.742005958854081</v>
       </c>
       <c r="F6" t="n">
-        <v>0.149537130581377</v>
+        <v>0.732162326075853</v>
       </c>
       <c r="G6" t="n">
-        <v>0.171945379535019</v>
+        <v>0.779401034041479</v>
       </c>
     </row>
     <row r="7">
@@ -540,22 +552,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.241907766972226</v>
+        <v>0.583728290623057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18138699512052</v>
+        <v>0.57913117486157</v>
       </c>
       <c r="D7" t="n">
-        <v>0.277608891118349</v>
+        <v>0.721503563015191</v>
       </c>
       <c r="E7" t="n">
-        <v>0.189134077508267</v>
+        <v>0.530747400259782</v>
       </c>
       <c r="F7" t="n">
-        <v>0.114016496093448</v>
+        <v>0.672788810024087</v>
       </c>
       <c r="G7" t="n">
-        <v>0.109231872232074</v>
+        <v>0.48090966292252</v>
       </c>
     </row>
     <row r="8">
@@ -563,22 +575,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.247355177108767</v>
+        <v>0.700302786414499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.141127876848021</v>
+        <v>0.763814034603485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.137526351283508</v>
+        <v>0.649615949577494</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1496942844669</v>
+        <v>0.790756019329837</v>
       </c>
       <c r="F8" t="n">
-        <v>0.143738010819852</v>
+        <v>0.90292823211265</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1104976972685</v>
+        <v>0.754831559499512</v>
       </c>
     </row>
     <row r="9">
@@ -586,22 +598,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.271649866502464</v>
+        <v>0.794603636998465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.101103162200739</v>
+        <v>0.826445176675647</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0847751046034548</v>
+        <v>0.862127460912143</v>
       </c>
       <c r="E9" t="n">
-        <v>0.117119649382052</v>
+        <v>0.839089180158753</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0690670932714941</v>
+        <v>0.775099173817302</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0986129995148601</v>
+        <v>0.803158728143301</v>
       </c>
     </row>
     <row r="10">
@@ -609,68 +621,160 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.389212451347974</v>
+        <v>0.624100120429845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.27600321390555</v>
+        <v>0.578841110002584</v>
       </c>
       <c r="D10" t="n">
-        <v>0.284599095614714</v>
+        <v>0.559939486022885</v>
       </c>
       <c r="E10" t="n">
-        <v>0.29249757255602</v>
+        <v>0.47942243904571</v>
       </c>
       <c r="F10" t="n">
-        <v>0.232016696285624</v>
+        <v>0.565426320829239</v>
       </c>
       <c r="G10" t="n">
-        <v>0.24734545597018</v>
+        <v>0.700663163230792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
+      <c r="B11" t="n">
+        <v>0.672452642814799</v>
       </c>
       <c r="C11" t="n">
-        <v>0.127290422486703</v>
+        <v>0.78958174719632</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167479261168304</v>
+        <v>0.794093554595749</v>
       </c>
       <c r="E11" t="n">
-        <v>0.121010850508594</v>
+        <v>0.761887918911924</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0707602214232746</v>
+        <v>0.84214600543438</v>
       </c>
       <c r="G11" t="n">
-        <v>0.102327339008448</v>
+        <v>0.792685889730533</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="e">
-        <v>#NUM!</v>
+      <c r="B12" t="n">
+        <v>0.801783289367114</v>
       </c>
       <c r="C12" t="n">
-        <v>0.134752399486368</v>
+        <v>0.791630483256353</v>
       </c>
       <c r="D12" t="n">
-        <v>0.132719085349421</v>
+        <v>0.762931455550182</v>
       </c>
       <c r="E12" t="n">
-        <v>0.133281599873724</v>
+        <v>0.775661805486125</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0894714761792316</v>
+        <v>0.837887699055579</v>
       </c>
       <c r="G12" t="n">
-        <v>0.141170249987403</v>
+        <v>0.849697688671459</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.711856908946298</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.82788700619946</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.836345743958251</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.845190074594039</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.854007278693856</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.781468113965147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.79880027931918</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.81453885043664</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.790251314769169</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.82559795963365</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.851977016361699</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.818172289939328</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.714732603698912</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.77485204811451</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.789656572994913</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.74349887623983</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.83354158374669</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.76174510480835</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.581885358358266</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.699153732125524</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.786831696143027</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.744161409240646</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.716784524357897</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.572018427961474</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Random programs: with GCS preferred to without</t>
+    <t xml:space="preserve">Preferred share of global tax for low-income (in %)</t>
   </si>
 </sst>
 </file>
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.899640518898826</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.919020900751089</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.940062200388914</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.924585186072393</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.936181423688134</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.885884740362292</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,7 +35,23 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred share of global tax for low-income (in %)</t>
+    <t xml:space="preserve">That recipient countries comply with
+climate targets and human rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That recipient countries cooperate
+to fight illegal migrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That other high-income countries
+also increase their foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That this is financed by increased taxes on millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That we can be sure the aid reaches
+people in need and money is not diverted</t>
   </si>
 </sst>
 </file>
@@ -395,22 +411,114 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.899640518898826</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.919020900751089</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.940062200388914</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.924585186072393</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.936181423688134</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.885884740362292</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">Europe</t>
   </si>
   <si>
@@ -32,26 +29,19 @@
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That recipient countries comply with
-climate targets and human rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That recipient countries cooperate
-to fight illegal migrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That other high-income countries
-also increase their foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That this is financed by increased taxes on millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That we can be sure the aid reaches
-people in need and money is not diverted</t>
+    <t xml:space="preserve">ETS2 with equal cash transfer
+(105€/year for each European)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETS2 with cash transfer in
+proportion to country's emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETS2 with low-carbon investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETS2 with transfers to vulnerable
+and low-carbon investments</t>
   </si>
 </sst>
 </file>
@@ -399,126 +389,73 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.295850706066943</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.350947633347685</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.267817555368674</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+        <v>0.297952131736021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.213917418442867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.226591261391379</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.225187287370775</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+        <v>0.190726209340489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.090998313378767</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.0831450199768469</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.105099979661172</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0612046300239277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.140734226276142</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.138822989751466</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.157320475502291</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+        <v>0.119828540468578</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
     <t xml:space="preserve">Europe</t>
   </si>
   <si>
@@ -29,7 +32,25 @@
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
-    <t xml:space="preserve">Does not support any of the ETS2 variants</t>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid is higher than current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid is lower than current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid is higher than perceived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid is lower than perceived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports increased foreign aid (incl. with conditions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reduced foreign aid</t>
   </si>
 </sst>
 </file>
@@ -377,22 +398,149 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.22105989891319</v>
+        <v>0.411602094599074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.218830386141532</v>
+        <v>0.589837119485913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23442169538242</v>
+        <v>0.753920608842609</v>
       </c>
       <c r="E2" t="n">
-        <v>0.181105996805762</v>
+        <v>0.576461037322966</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.62526790907398</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.426622250399556</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.275594429239559</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.159132073365543</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.153073091431498</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.180697366235472</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.143527375648785</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.144827304024705</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.341094135940619</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.533701101345921</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.636414779134716</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.587651067741646</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.537247023957455</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.393330839363339</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.208196425697832</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.210008624462074</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.196094133272378</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.205582565093013</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.236522011514021</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.18389456157886</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.598187012564733</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.636739028674537</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.627588384954585</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.676807601959896</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.691059073949057</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.560844998477962</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.18028384191809</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.138501430842085</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.076424398031436</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.107886976232851</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.104534936604642</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.245975567329776</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,22 +35,38 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred foreign aid is higher than current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid is lower than current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid is higher than perceived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid is lower than perceived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports increased foreign aid (incl. with conditions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reduced foreign aid</t>
+    <t xml:space="preserve">It would succeed in limiting climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would hurt the [Country] economy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would penalize my household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would make people change their lifestyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would reduce poverty in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It might be detrimental to some poor countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It could foster global cooperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It could fuel corruption in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It could be subject to fraud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would be technically difficult to put in place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having enough information on
+this scheme and its consequences</t>
   </si>
 </sst>
 </file>
@@ -410,22 +426,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.411602094599074</v>
+        <v>0.781977120663347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.589837119485913</v>
+        <v>0.849355519254144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.753920608842609</v>
+        <v>0.848862622959451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.576461037322966</v>
+        <v>0.863126070347844</v>
       </c>
       <c r="F2" t="n">
-        <v>0.62526790907398</v>
+        <v>0.863285412891485</v>
       </c>
       <c r="G2" t="n">
-        <v>0.426622250399556</v>
+        <v>0.833244627262759</v>
       </c>
     </row>
     <row r="3">
@@ -433,22 +449,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.275594429239559</v>
+        <v>0.82954095574166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159132073365543</v>
+        <v>0.665906725952896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153073091431498</v>
+        <v>0.607432380472566</v>
       </c>
       <c r="E3" t="n">
-        <v>0.180697366235472</v>
+        <v>0.673839478785807</v>
       </c>
       <c r="F3" t="n">
-        <v>0.143527375648785</v>
+        <v>0.657169211771068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.144827304024705</v>
+        <v>0.690835106601304</v>
       </c>
     </row>
     <row r="4">
@@ -456,22 +472,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.341094135940619</v>
+        <v>0.762721111903187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.533701101345921</v>
+        <v>0.603267309381416</v>
       </c>
       <c r="D4" t="n">
-        <v>0.636414779134716</v>
+        <v>0.553916523050434</v>
       </c>
       <c r="E4" t="n">
-        <v>0.587651067741646</v>
+        <v>0.634502026544765</v>
       </c>
       <c r="F4" t="n">
-        <v>0.537247023957455</v>
+        <v>0.589338070076618</v>
       </c>
       <c r="G4" t="n">
-        <v>0.393330839363339</v>
+        <v>0.625151968252833</v>
       </c>
     </row>
     <row r="5">
@@ -479,22 +495,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.208196425697832</v>
+        <v>0.771927139349138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.210008624462074</v>
+        <v>0.790239849959044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196094133272378</v>
+        <v>0.831283093710656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.205582565093013</v>
+        <v>0.792627442855504</v>
       </c>
       <c r="F5" t="n">
-        <v>0.236522011514021</v>
+        <v>0.781774044391452</v>
       </c>
       <c r="G5" t="n">
-        <v>0.18389456157886</v>
+        <v>0.7670387246316</v>
       </c>
     </row>
     <row r="6">
@@ -502,22 +518,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.598187012564733</v>
+        <v>0.767803777210884</v>
       </c>
       <c r="C6" t="n">
-        <v>0.636739028674537</v>
+        <v>0.848600325192891</v>
       </c>
       <c r="D6" t="n">
-        <v>0.627588384954585</v>
+        <v>0.882123622438504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.676807601959896</v>
+        <v>0.847762661185943</v>
       </c>
       <c r="F6" t="n">
-        <v>0.691059073949057</v>
+        <v>0.862519778212693</v>
       </c>
       <c r="G6" t="n">
-        <v>0.560844998477962</v>
+        <v>0.812142695785371</v>
       </c>
     </row>
     <row r="7">
@@ -525,22 +541,137 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18028384191809</v>
+        <v>0.787026462091655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.138501430842085</v>
+        <v>0.722764735227507</v>
       </c>
       <c r="D7" t="n">
-        <v>0.076424398031436</v>
+        <v>0.788092642444145</v>
       </c>
       <c r="E7" t="n">
-        <v>0.107886976232851</v>
+        <v>0.66876277172299</v>
       </c>
       <c r="F7" t="n">
-        <v>0.104534936604642</v>
+        <v>0.781375671969905</v>
       </c>
       <c r="G7" t="n">
-        <v>0.245975567329776</v>
+        <v>0.700159157691239</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.822092005604102</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.813940834692694</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.814127219354403</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.817542214350788</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.848384772393614</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.798440183168175</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.782606682047502</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.748062572706373</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.81766831549821</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.685057474556869</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.789232894471016</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.724375824671621</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.792371939866051</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.788954875252674</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.796439642608428</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.744830059509387</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.833479461725312</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.811832785438631</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.764334484472087</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.707149714298534</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.739404784241528</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.622144203827349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.790728857332737</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.707993241866075</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.888025717645383</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.82411912592662</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.88966513094401</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.680672740829799</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.908863993352952</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.878432115835494</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,38 +35,50 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">It would succeed in limiting climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would hurt the [Country] economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would penalize my household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would make people change their lifestyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would reduce poverty in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It might be detrimental to some poor countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It could foster global cooperation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It could fuel corruption in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It could be subject to fraud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would be technically difficult to put in place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Having enough information on
-this scheme and its consequences</t>
+    <t xml:space="preserve">econ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ2: [Higher minimum wage] (DE: Bürgerversicherung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate2: Thermal insulation plan (US: also transport)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate3: Ban the sale of new
+combustion-engine cars by 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax1: National redistribution scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax2: Wealth tax (ES: raise tax on top incomes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign1: Global climate scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign2: Global tax on millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign3: Global democratic assembly on climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign4: Doubling foreign aid</t>
   </si>
 </sst>
 </file>
@@ -426,22 +438,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.781977120663347</v>
+        <v>0.637372904029895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.849355519254144</v>
+        <v>0.783805341757823</v>
       </c>
       <c r="D2" t="n">
-        <v>0.848862622959451</v>
+        <v>0.611720406441344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.863126070347844</v>
+        <v>0.667652651104253</v>
       </c>
       <c r="F2" t="n">
-        <v>0.863285412891485</v>
+        <v>0.962535860751196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.833244627262759</v>
+        <v>0.954628711089672</v>
       </c>
     </row>
     <row r="3">
@@ -449,22 +461,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.82954095574166</v>
+        <v>0.832071176976898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.665906725952896</v>
+        <v>0.857633658350567</v>
       </c>
       <c r="D3" t="n">
-        <v>0.607432380472566</v>
+        <v>0.846729779003791</v>
       </c>
       <c r="E3" t="n">
-        <v>0.673839478785807</v>
+        <v>0.83767049907743</v>
       </c>
       <c r="F3" t="n">
-        <v>0.657169211771068</v>
+        <v>0.870774529264404</v>
       </c>
       <c r="G3" t="n">
-        <v>0.690835106601304</v>
+        <v>0.888889400825906</v>
       </c>
     </row>
     <row r="4">
@@ -472,22 +484,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.762721111903187</v>
+        <v>0.806649693500696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.603267309381416</v>
+        <v>0.693828541427267</v>
       </c>
       <c r="D4" t="n">
-        <v>0.553916523050434</v>
+        <v>0.503788197181973</v>
       </c>
       <c r="E4" t="n">
-        <v>0.634502026544765</v>
+        <v>0.777548545784501</v>
       </c>
       <c r="F4" t="n">
-        <v>0.589338070076618</v>
+        <v>0.797584261290613</v>
       </c>
       <c r="G4" t="n">
-        <v>0.625151968252833</v>
+        <v>0.679717180882498</v>
       </c>
     </row>
     <row r="5">
@@ -495,22 +507,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.771927139349138</v>
+        <v>0.876277717753633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.790239849959044</v>
+        <v>0.85583054239144</v>
       </c>
       <c r="D5" t="n">
-        <v>0.831283093710656</v>
+        <v>0.913460574184681</v>
       </c>
       <c r="E5" t="n">
-        <v>0.792627442855504</v>
+        <v>0.789726562696184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.781774044391452</v>
+        <v>0.893304484571986</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7670387246316</v>
+        <v>0.852438416885301</v>
       </c>
     </row>
     <row r="6">
@@ -518,22 +530,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.767803777210884</v>
+        <v>0.568918325638433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.848600325192891</v>
+        <v>0.747771232550676</v>
       </c>
       <c r="D6" t="n">
-        <v>0.882123622438504</v>
+        <v>0.693789395820279</v>
       </c>
       <c r="E6" t="n">
-        <v>0.847762661185943</v>
+        <v>0.741998520937133</v>
       </c>
       <c r="F6" t="n">
-        <v>0.862519778212693</v>
+        <v>0.736160346382132</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812142695785371</v>
+        <v>0.779407392586086</v>
       </c>
     </row>
     <row r="7">
@@ -541,22 +553,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.787026462091655</v>
+        <v>0.583722012843081</v>
       </c>
       <c r="C7" t="n">
-        <v>0.722764735227507</v>
+        <v>0.57659489697438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.788092642444145</v>
+        <v>0.721416887044479</v>
       </c>
       <c r="E7" t="n">
-        <v>0.66876277172299</v>
+        <v>0.530742747983465</v>
       </c>
       <c r="F7" t="n">
-        <v>0.781375671969905</v>
+        <v>0.640592724699773</v>
       </c>
       <c r="G7" t="n">
-        <v>0.700159157691239</v>
+        <v>0.480912956959627</v>
       </c>
     </row>
     <row r="8">
@@ -564,22 +576,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.822092005604102</v>
+        <v>0.700355311843266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.813940834692694</v>
+        <v>0.763638483288072</v>
       </c>
       <c r="D8" t="n">
-        <v>0.814127219354403</v>
+        <v>0.64968586772021</v>
       </c>
       <c r="E8" t="n">
-        <v>0.817542214350788</v>
+        <v>0.7907471817219</v>
       </c>
       <c r="F8" t="n">
-        <v>0.848384772393614</v>
+        <v>0.891434457770713</v>
       </c>
       <c r="G8" t="n">
-        <v>0.798440183168175</v>
+        <v>0.754809734771349</v>
       </c>
     </row>
     <row r="9">
@@ -587,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.782606682047502</v>
+        <v>0.794665836663391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.748062572706373</v>
+        <v>0.825452653978534</v>
       </c>
       <c r="D9" t="n">
-        <v>0.81766831549821</v>
+        <v>0.862198463346188</v>
       </c>
       <c r="E9" t="n">
-        <v>0.685057474556869</v>
+        <v>0.83908845037742</v>
       </c>
       <c r="F9" t="n">
-        <v>0.789232894471016</v>
+        <v>0.783880322402835</v>
       </c>
       <c r="G9" t="n">
-        <v>0.724375824671621</v>
+        <v>0.803122575444206</v>
       </c>
     </row>
     <row r="10">
@@ -610,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.792371939866051</v>
+        <v>0.624076284194441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.788954875252674</v>
+        <v>0.583189391484559</v>
       </c>
       <c r="D10" t="n">
-        <v>0.796439642608428</v>
+        <v>0.560030258502528</v>
       </c>
       <c r="E10" t="n">
-        <v>0.744830059509387</v>
+        <v>0.479435614164848</v>
       </c>
       <c r="F10" t="n">
-        <v>0.833479461725312</v>
+        <v>0.598635095564671</v>
       </c>
       <c r="G10" t="n">
-        <v>0.811832785438631</v>
+        <v>0.700650810772119</v>
       </c>
     </row>
     <row r="11">
@@ -633,22 +645,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.764334484472087</v>
+        <v>0.672450987190444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.707149714298534</v>
+        <v>0.788729157193707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.739404784241528</v>
+        <v>0.794136365653854</v>
       </c>
       <c r="E11" t="n">
-        <v>0.622144203827349</v>
+        <v>0.761903896360653</v>
       </c>
       <c r="F11" t="n">
-        <v>0.790728857332737</v>
+        <v>0.820677037210474</v>
       </c>
       <c r="G11" t="n">
-        <v>0.707993241866075</v>
+        <v>0.792656651211389</v>
       </c>
     </row>
     <row r="12">
@@ -656,22 +668,114 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.888025717645383</v>
+        <v>0.801839174799188</v>
       </c>
       <c r="C12" t="n">
-        <v>0.82411912592662</v>
+        <v>0.791202155434969</v>
       </c>
       <c r="D12" t="n">
-        <v>0.88966513094401</v>
+        <v>0.762842259153019</v>
       </c>
       <c r="E12" t="n">
-        <v>0.680672740829799</v>
+        <v>0.775632770046069</v>
       </c>
       <c r="F12" t="n">
-        <v>0.908863993352952</v>
+        <v>0.82510033902061</v>
       </c>
       <c r="G12" t="n">
-        <v>0.878432115835494</v>
+        <v>0.849656256850927</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.711952631580924</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.826585039353645</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.836413308044687</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.845188328483339</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.838953528961754</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.781436268225185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.798902933525609</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.810489188030382</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.790239955867968</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.825590268950522</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.824135495290505</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.818175041156731</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.71470528720425</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.773978648905211</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.789600091188154</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.743501280564486</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.831075487206287</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.761741192231097</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.582002503082714</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.701421440452333</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.786951735941418</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.744184169652737</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.737670322759518</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.571994695597149</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,16 +35,43 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Petition for the GCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Comparable) support for the GCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petition for NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Comparable) support for NR</t>
+    <t xml:space="preserve">Duration..GCS.comprehension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..NR.comprehension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..GCS.NR.comprehension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..GCS.comprehension.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..conjoint..a.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..conjoint..b.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..conjoint..c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..G.perceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..other.policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..conjoint..d.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..100.points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
   </si>
 </sst>
 </file>
@@ -404,22 +431,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.510632323755612</v>
+        <v>2.25958673112358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.691951410757099</v>
+        <v>2.46191409890049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.693091880420722</v>
+        <v>2.24718914120466</v>
       </c>
       <c r="E2" t="n">
-        <v>0.656978514559047</v>
+        <v>2.40938933503264</v>
       </c>
       <c r="F2" t="n">
-        <v>0.781832319583008</v>
+        <v>2.75655140729503</v>
       </c>
       <c r="G2" t="n">
-        <v>0.692552700180898</v>
+        <v>2.39319619555305</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +454,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.529524668384761</v>
+        <v>1.07376495844947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.763043789405645</v>
+        <v>1.17462047319702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.808758815069397</v>
+        <v>0.957568272004658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.737320027579415</v>
+        <v>1.36373651305865</v>
       </c>
       <c r="F3" t="n">
-        <v>0.811987423248511</v>
+        <v>1.2940778662577</v>
       </c>
       <c r="G3" t="n">
-        <v>0.743055867322827</v>
+        <v>1.06074235400336</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +477,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.57372741563391</v>
+        <v>0.996026596020398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.674017108978727</v>
+        <v>1.03394055909663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.648274021891491</v>
+        <v>0.904084222401958</v>
       </c>
       <c r="E4" t="n">
-        <v>0.660516788041267</v>
+        <v>1.1873768387035</v>
       </c>
       <c r="F4" t="n">
-        <v>0.735905831480895</v>
+        <v>1.12193855782083</v>
       </c>
       <c r="G4" t="n">
-        <v>0.678988666007824</v>
+        <v>0.894344851734949</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +500,229 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.57929600664351</v>
+        <v>2.25958673112358</v>
       </c>
       <c r="C5" t="n">
-        <v>0.718588625810646</v>
+        <v>2.46191409890049</v>
       </c>
       <c r="D5" t="n">
-        <v>0.760390832741676</v>
+        <v>2.24718914120466</v>
       </c>
       <c r="E5" t="n">
-        <v>0.645318535630301</v>
+        <v>2.40938933503264</v>
       </c>
       <c r="F5" t="n">
-        <v>0.777522352771663</v>
+        <v>2.75655140729503</v>
       </c>
       <c r="G5" t="n">
-        <v>0.746141359189944</v>
+        <v>2.39319619555305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.886803698502162</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.746850718004986</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.70320532343755</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.831858074014431</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.815106491816141</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.664374481919389</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.886816528298668</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.746858090364159</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.703215084062957</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.83186104727707</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.815120394678434</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.664389032051404</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.460698943425786</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.607654504239272</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.548466431623169</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.637941870028731</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.638687916821143</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.612982072378553</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.56209107209266</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.22390456977372</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.15663814697645</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.375982598971</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.14016338053418</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.1481900398746</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.61328825135136</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.10649935242347</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.18925478178313</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.20457240916377</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.08864935203379</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.92158763053788</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.54150384458374</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.672859219778325</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.689170726575132</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.693976775118029</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.748333112622228</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.59814915179832</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.23159404478743</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.51690258839349</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.62840231424943</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.42793769040296</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.56518029622989</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.51606691164961</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.883509330138942</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.704431489451435</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.726615364023549</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.681426597758531</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.770814167958204</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.690088165673693</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19.1576837058717</v>
+      </c>
+      <c r="C14" t="n">
+        <v>56.610156404885</v>
+      </c>
+      <c r="D14" t="n">
+        <v>58.2490500114023</v>
+      </c>
+      <c r="E14" t="n">
+        <v>60.5781932246989</v>
+      </c>
+      <c r="F14" t="n">
+        <v>36.4104147967063</v>
+      </c>
+      <c r="G14" t="n">
+        <v>52.5434191563973</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,43 +35,13 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Duration..GCS.comprehension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..NR.comprehension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..GCS.NR.comprehension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..GCS.comprehension.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..conjoint..a.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..conjoint..b.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..conjoint..c.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..G.perceptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..other.policies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..conjoint..d.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..100.points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
+    <t xml:space="preserve">Preferred foreign aid is higher than current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid is higher than perceived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports increasing foreign aid (incl. with conditions)</t>
   </si>
 </sst>
 </file>
@@ -431,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.25958673112358</v>
+        <v>0.474793644184466</v>
       </c>
       <c r="C2" t="n">
-        <v>2.46191409890049</v>
+        <v>0.589837119485913</v>
       </c>
       <c r="D2" t="n">
-        <v>2.24718914120466</v>
+        <v>0.753920608842609</v>
       </c>
       <c r="E2" t="n">
-        <v>2.40938933503264</v>
+        <v>0.576461037322966</v>
       </c>
       <c r="F2" t="n">
-        <v>2.75655140729503</v>
+        <v>0.62526790907398</v>
       </c>
       <c r="G2" t="n">
-        <v>2.39319619555305</v>
+        <v>0.426622250399556</v>
       </c>
     </row>
     <row r="3">
@@ -454,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.07376495844947</v>
+        <v>0.365019334499854</v>
       </c>
       <c r="C3" t="n">
-        <v>1.17462047319702</v>
+        <v>0.533701101345921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.957568272004658</v>
+        <v>0.636414779134716</v>
       </c>
       <c r="E3" t="n">
-        <v>1.36373651305865</v>
+        <v>0.587651067741646</v>
       </c>
       <c r="F3" t="n">
-        <v>1.2940778662577</v>
+        <v>0.537247023957455</v>
       </c>
       <c r="G3" t="n">
-        <v>1.06074235400336</v>
+        <v>0.393330839363339</v>
       </c>
     </row>
     <row r="4">
@@ -477,252 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.996026596020398</v>
+        <v>0.598187012564733</v>
       </c>
       <c r="C4" t="n">
-        <v>1.03394055909663</v>
+        <v>0.636739028674537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.904084222401958</v>
+        <v>0.627588384954585</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1873768387035</v>
+        <v>0.676807601959896</v>
       </c>
       <c r="F4" t="n">
-        <v>1.12193855782083</v>
+        <v>0.691059073949057</v>
       </c>
       <c r="G4" t="n">
-        <v>0.894344851734949</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.25958673112358</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.46191409890049</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.24718914120466</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.40938933503264</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.75655140729503</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.39319619555305</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.886803698502162</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.746850718004986</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.70320532343755</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.831858074014431</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.815106491816141</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.664374481919389</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.886816528298668</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.746858090364159</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.703215084062957</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.83186104727707</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.815120394678434</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.664389032051404</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.460698943425786</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.607654504239272</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.548466431623169</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.637941870028731</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.638687916821143</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.612982072378553</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.56209107209266</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.22390456977372</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.15663814697645</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.375982598971</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.14016338053418</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.1481900398746</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.61328825135136</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.10649935242347</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.18925478178313</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.20457240916377</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.08864935203379</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.92158763053788</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.54150384458374</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.672859219778325</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.689170726575132</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.693976775118029</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.748333112622228</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.59814915179832</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.23159404478743</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.51690258839349</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.62840231424943</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.42793769040296</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.56518029622989</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.51606691164961</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.883509330138942</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.704431489451435</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.726615364023549</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.681426597758531</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.770814167958204</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.690088165673693</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="n">
-        <v>19.1576837058717</v>
-      </c>
-      <c r="C14" t="n">
-        <v>56.610156404885</v>
-      </c>
-      <c r="D14" t="n">
-        <v>58.2490500114023</v>
-      </c>
-      <c r="E14" t="n">
-        <v>60.5781932246989</v>
-      </c>
-      <c r="F14" t="n">
-        <v>36.4104147967063</v>
-      </c>
-      <c r="G14" t="n">
-        <v>52.5434191563973</v>
+        <v>0.560844998477962</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,13 +35,10 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred foreign aid is higher than current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid is higher than perceived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports increasing foreign aid (incl. with conditions)</t>
+    <t xml:space="preserve">Belief about GCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about NR</t>
   </si>
 </sst>
 </file>
@@ -401,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.474793644184466</v>
+        <v>51.7468893271431</v>
       </c>
       <c r="C2" t="n">
-        <v>0.589837119485913</v>
+        <v>58.7165906294257</v>
       </c>
       <c r="D2" t="n">
-        <v>0.753920608842609</v>
+        <v>61.2471232063537</v>
       </c>
       <c r="E2" t="n">
-        <v>0.576461037322966</v>
+        <v>55.8760774338855</v>
       </c>
       <c r="F2" t="n">
-        <v>0.62526790907398</v>
+        <v>63.2492428282122</v>
       </c>
       <c r="G2" t="n">
-        <v>0.426622250399556</v>
+        <v>56.9303970210785</v>
       </c>
     </row>
     <row r="3">
@@ -424,45 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.365019334499854</v>
+        <v>55.1540879537179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.533701101345921</v>
+        <v>57.8956679241541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.636414779134716</v>
+        <v>60.3249521322473</v>
       </c>
       <c r="E3" t="n">
-        <v>0.587651067741646</v>
+        <v>53.014236682396</v>
       </c>
       <c r="F3" t="n">
-        <v>0.537247023957455</v>
+        <v>62.0685304640517</v>
       </c>
       <c r="G3" t="n">
-        <v>0.393330839363339</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.598187012564733</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.636739028674537</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.627588384954585</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.676807601959896</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.691059073949057</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.560844998477962</v>
+        <v>59.0733426883397</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,16 +35,10 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Petition for the GCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Comparable) support for the GCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petition for NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Comparable) support for NR</t>
+    <t xml:space="preserve">Belief about GCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about NR</t>
   </si>
 </sst>
 </file>
@@ -404,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.510632323755612</v>
+        <v>51.7468893271431</v>
       </c>
       <c r="C2" t="n">
-        <v>0.691951410757099</v>
+        <v>58.7165906294257</v>
       </c>
       <c r="D2" t="n">
-        <v>0.693091880420722</v>
+        <v>61.2471232063537</v>
       </c>
       <c r="E2" t="n">
-        <v>0.656978514559047</v>
+        <v>55.8760774338855</v>
       </c>
       <c r="F2" t="n">
-        <v>0.781832319583008</v>
+        <v>63.2492428282122</v>
       </c>
       <c r="G2" t="n">
-        <v>0.692552700180898</v>
+        <v>56.9303970210785</v>
       </c>
     </row>
     <row r="3">
@@ -427,68 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.529524668384761</v>
+        <v>55.1540879537179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.763043789405645</v>
+        <v>57.8956679241541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.808758815069397</v>
+        <v>60.3249521322473</v>
       </c>
       <c r="E3" t="n">
-        <v>0.737320027579415</v>
+        <v>53.014236682396</v>
       </c>
       <c r="F3" t="n">
-        <v>0.811987423248511</v>
+        <v>62.0685304640517</v>
       </c>
       <c r="G3" t="n">
-        <v>0.743055867322827</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.57372741563391</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.674017108978727</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.648274021891491</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.660516788041267</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.735905831480895</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.678988666007824</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.57929600664351</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.718588625810646</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.760390832741676</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.645318535630301</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.777522352771663</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.746141359189944</v>
+        <v>59.0733426883397</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,10 +35,38 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Belief about GCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about NR</t>
+    <t xml:space="preserve">It would succeed in limiting climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would hurt the [Country] economy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would penalize my household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would make people change their lifestyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would reduce poverty in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It might be detrimental to some poor countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It could foster global cooperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It could fuel corruption in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It could be subject to fraud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would be technically difficult to put in place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having enough information on
+this scheme and its consequences</t>
   </si>
 </sst>
 </file>
@@ -398,22 +426,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>51.7468893271431</v>
+        <v>0.672053541001286</v>
       </c>
       <c r="C2" t="n">
-        <v>58.7165906294257</v>
+        <v>0.582938067961184</v>
       </c>
       <c r="D2" t="n">
-        <v>61.2471232063537</v>
+        <v>0.540830920916378</v>
       </c>
       <c r="E2" t="n">
-        <v>55.8760774338855</v>
+        <v>0.656789582949536</v>
       </c>
       <c r="F2" t="n">
-        <v>63.2492428282122</v>
+        <v>0.538104795906038</v>
       </c>
       <c r="G2" t="n">
-        <v>56.9303970210785</v>
+        <v>0.541350478300235</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +449,229 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>55.1540879537179</v>
+        <v>0.891301757279309</v>
       </c>
       <c r="C3" t="n">
-        <v>57.8956679241541</v>
+        <v>0.780204464912827</v>
       </c>
       <c r="D3" t="n">
-        <v>60.3249521322473</v>
+        <v>0.659795214245632</v>
       </c>
       <c r="E3" t="n">
-        <v>53.014236682396</v>
+        <v>0.729457954248223</v>
       </c>
       <c r="F3" t="n">
-        <v>62.0685304640517</v>
+        <v>0.73782451273014</v>
       </c>
       <c r="G3" t="n">
-        <v>59.0733426883397</v>
+        <v>0.902695682752281</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.839128610889381</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.742901276441401</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7017279146792</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.728815269477337</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.750395530604615</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.782192072002497</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.724595557495586</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.626578181406864</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.658937842683342</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.644915946352901</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.597782105482217</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.580143827052933</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.689054219802248</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.664380381636305</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.704094709238634</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.711275867180752</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.572528055051728</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.60927373973101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.74503010611439</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.652681493456455</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.646895029917251</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.659443297789059</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.708152559274898</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.636222901700506</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.719660543344661</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.573814842079329</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.523468296219712</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.634321205004898</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.525018018015189</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.562108110779417</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.77708533855146</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.706642015509628</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.782414898061268</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.655380261897868</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.777203628123294</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.689685291309682</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.834418003882785</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.798367178476084</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.775382352209707</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.796236245924259</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.817054675660094</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.794298090146449</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.811160240941621</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.71958710509228</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.697265999422906</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.668537258017323</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.73485497102585</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.740334261560751</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.909620188686539</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.765524000555159</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.784696947296919</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.712068192462401</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.792464056175893</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.791230367967449</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,28 +35,38 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C+NR+GCS preferred to C+NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS+NR preferred to C+NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+C+GCS preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+GCS preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+C preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random programs: with GCS preferred to without</t>
+    <t xml:space="preserve">It would succeed in limiting climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would hurt the [Country] economy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would penalize my household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would make people change their lifestyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would reduce poverty in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It might be detrimental to some poor countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It could foster global cooperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It could fuel corruption in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It could be subject to fraud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would be technically difficult to put in place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having enough information on
+this scheme and its consequences</t>
   </si>
 </sst>
 </file>
@@ -416,22 +426,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.542040008566919</v>
+        <v>0.593300805548547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.757320866764204</v>
+        <v>0.798316168795588</v>
       </c>
       <c r="D2" t="n">
-        <v>0.802845995450502</v>
+        <v>0.809737487250624</v>
       </c>
       <c r="E2" t="n">
-        <v>0.712681465751731</v>
+        <v>0.801269845163997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.809917713113721</v>
+        <v>0.802759474182296</v>
       </c>
       <c r="G2" t="n">
-        <v>0.74106127773703</v>
+        <v>0.803503442074255</v>
       </c>
     </row>
     <row r="3">
@@ -439,22 +449,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.547746186051635</v>
+        <v>0.891425446185947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.735351301009053</v>
+        <v>0.734343884976076</v>
       </c>
       <c r="D3" t="n">
-        <v>0.786517033810842</v>
+        <v>0.66011845184374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.714098080786382</v>
+        <v>0.773993520808291</v>
       </c>
       <c r="F3" t="n">
-        <v>0.782294412865101</v>
+        <v>0.769785232844933</v>
       </c>
       <c r="G3" t="n">
-        <v>0.683359692303094</v>
+        <v>0.734188607563879</v>
       </c>
     </row>
     <row r="4">
@@ -462,22 +472,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.472512715667483</v>
+        <v>0.837842434332639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.515377450158311</v>
+        <v>0.649556135900333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.529174790889353</v>
+        <v>0.544523480585528</v>
       </c>
       <c r="E4" t="n">
-        <v>0.532760503496087</v>
+        <v>0.727832934920089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.490919481564323</v>
+        <v>0.722448306363765</v>
       </c>
       <c r="G4" t="n">
-        <v>0.520312075113975</v>
+        <v>0.676610115099755</v>
       </c>
     </row>
     <row r="5">
@@ -485,22 +495,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.549945299403874</v>
+        <v>0.747059011250423</v>
       </c>
       <c r="C5" t="n">
-        <v>0.772716277532722</v>
+        <v>0.760748646394783</v>
       </c>
       <c r="D5" t="n">
-        <v>0.861384362992593</v>
+        <v>0.820640960368556</v>
       </c>
       <c r="E5" t="n">
-        <v>0.727393767309419</v>
+        <v>0.745104631264865</v>
       </c>
       <c r="F5" t="n">
-        <v>0.832743165850594</v>
+        <v>0.72988960058406</v>
       </c>
       <c r="G5" t="n">
-        <v>0.721894153943557</v>
+        <v>0.728092737150705</v>
       </c>
     </row>
     <row r="6">
@@ -508,22 +518,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.546998519360197</v>
+        <v>0.620917729383005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.770223388683434</v>
+        <v>0.78913119672879</v>
       </c>
       <c r="D6" t="n">
-        <v>0.791348238675161</v>
+        <v>0.855042207071307</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7419152210687</v>
+        <v>0.753586689991038</v>
       </c>
       <c r="F6" t="n">
-        <v>0.792397387102864</v>
+        <v>0.834664561377067</v>
       </c>
       <c r="G6" t="n">
-        <v>0.772122341113144</v>
+        <v>0.754698076525027</v>
       </c>
     </row>
     <row r="7">
@@ -531,22 +541,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.616278518818649</v>
+        <v>0.701622795907415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.840441328944408</v>
+        <v>0.712710646471761</v>
       </c>
       <c r="D7" t="n">
-        <v>0.877676923710508</v>
+        <v>0.757480297774307</v>
       </c>
       <c r="E7" t="n">
-        <v>0.829293481343928</v>
+        <v>0.637897645695564</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8401259487174</v>
+        <v>0.877803125109165</v>
       </c>
       <c r="G7" t="n">
-        <v>0.823739735276932</v>
+        <v>0.700890373546844</v>
       </c>
     </row>
     <row r="8">
@@ -554,22 +564,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.576260769994676</v>
+        <v>0.71036942310177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.602521116263654</v>
+        <v>0.767459227638374</v>
       </c>
       <c r="D8" t="n">
-        <v>0.609808785858749</v>
+        <v>0.769430442315501</v>
       </c>
       <c r="E8" t="n">
-        <v>0.593269893728387</v>
+        <v>0.758346955137085</v>
       </c>
       <c r="F8" t="n">
-        <v>0.65080574369961</v>
+        <v>0.84096493071521</v>
       </c>
       <c r="G8" t="n">
-        <v>0.576958671759513</v>
+        <v>0.746768125063093</v>
       </c>
     </row>
     <row r="9">
@@ -577,22 +587,91 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.469348959719292</v>
+        <v>0.776451040625449</v>
       </c>
       <c r="C9" t="n">
-        <v>0.526336893165654</v>
+        <v>0.752356847825706</v>
       </c>
       <c r="D9" t="n">
-        <v>0.575459154996921</v>
+        <v>0.829686492804909</v>
       </c>
       <c r="E9" t="n">
-        <v>0.508831293471374</v>
+        <v>0.705157484400394</v>
       </c>
       <c r="F9" t="n">
-        <v>0.496827458614761</v>
+        <v>0.849273919987832</v>
       </c>
       <c r="G9" t="n">
-        <v>0.518554917937033</v>
+        <v>0.66342378640839</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.869708886859866</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.815652162844027</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.834311730887263</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8156709550428</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.867891452365697</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7671375817381</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.849616378214432</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.734028088236682</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.756084447572338</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.685545279841557</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.842706846604206</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.69712559445501</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.891121217137727</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.819983433106146</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.87483983315479</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.673226727255466</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.913082349886563</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.869575896966582</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,38 +35,32 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">It would succeed in limiting climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would hurt the [Country] economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would penalize my household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would make people change their lifestyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would reduce poverty in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It might be detrimental to some poor countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It could foster global cooperation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It could fuel corruption in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It could be subject to fraud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would be technically difficult to put in place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Having enough information on
-this scheme and its consequences</t>
+    <t xml:space="preserve">Universalist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationalist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individualist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favors [Country]'s interests even against global justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favors [Country]'s interests restrained by global justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favors global justice, restrained
+or not by [Country]'s interests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate change is a problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global poverty is a problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income inequality in [Country] is a problem</t>
   </si>
 </sst>
 </file>
@@ -426,22 +420,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.593300805548547</v>
+        <v>0.431295387287451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.798316168795588</v>
+        <v>0.415498652646033</v>
       </c>
       <c r="D2" t="n">
-        <v>0.809737487250624</v>
+        <v>0.360953103985898</v>
       </c>
       <c r="E2" t="n">
-        <v>0.801269845163997</v>
+        <v>0.482494601642772</v>
       </c>
       <c r="F2" t="n">
-        <v>0.802759474182296</v>
+        <v>0.422785911402492</v>
       </c>
       <c r="G2" t="n">
-        <v>0.803503442074255</v>
+        <v>0.378583106869736</v>
       </c>
     </row>
     <row r="3">
@@ -449,22 +443,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.891425446185947</v>
+        <v>0.335328023000906</v>
       </c>
       <c r="C3" t="n">
-        <v>0.734343884976076</v>
+        <v>0.26778349671938</v>
       </c>
       <c r="D3" t="n">
-        <v>0.66011845184374</v>
+        <v>0.34776174292469</v>
       </c>
       <c r="E3" t="n">
-        <v>0.773993520808291</v>
+        <v>0.177756964986634</v>
       </c>
       <c r="F3" t="n">
-        <v>0.769785232844933</v>
+        <v>0.319360978775697</v>
       </c>
       <c r="G3" t="n">
-        <v>0.734188607563879</v>
+        <v>0.260990187313521</v>
       </c>
     </row>
     <row r="4">
@@ -472,22 +466,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.837842434332639</v>
+        <v>0.159264138407261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.649556135900333</v>
+        <v>0.145472297662639</v>
       </c>
       <c r="D4" t="n">
-        <v>0.544523480585528</v>
+        <v>0.141127082770151</v>
       </c>
       <c r="E4" t="n">
-        <v>0.727832934920089</v>
+        <v>0.149676296410627</v>
       </c>
       <c r="F4" t="n">
-        <v>0.722448306363765</v>
+        <v>0.0920876802359206</v>
       </c>
       <c r="G4" t="n">
-        <v>0.676610115099755</v>
+        <v>0.182746057256662</v>
       </c>
     </row>
     <row r="5">
@@ -495,22 +489,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.747059011250423</v>
+        <v>0.140626629557636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.760748646394783</v>
+        <v>0.0890415597589719</v>
       </c>
       <c r="D5" t="n">
-        <v>0.820640960368556</v>
+        <v>0.0869747098996209</v>
       </c>
       <c r="E5" t="n">
-        <v>0.745104631264865</v>
+        <v>0.0859081077054858</v>
       </c>
       <c r="F5" t="n">
-        <v>0.72988960058406</v>
+        <v>0.045793570170357</v>
       </c>
       <c r="G5" t="n">
-        <v>0.728092737150705</v>
+        <v>0.117646269574193</v>
       </c>
     </row>
     <row r="6">
@@ -518,22 +512,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.620917729383005</v>
+        <v>0.354734644190495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.78913119672879</v>
+        <v>0.401067980135765</v>
       </c>
       <c r="D6" t="n">
-        <v>0.855042207071307</v>
+        <v>0.489852146546272</v>
       </c>
       <c r="E6" t="n">
-        <v>0.753586689991038</v>
+        <v>0.346877257212978</v>
       </c>
       <c r="F6" t="n">
-        <v>0.834664561377067</v>
+        <v>0.461933662628502</v>
       </c>
       <c r="G6" t="n">
-        <v>0.754698076525027</v>
+        <v>0.338968246906459</v>
       </c>
     </row>
     <row r="7">
@@ -541,22 +535,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.701622795907415</v>
+        <v>0.254760757150076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.712710646471761</v>
+        <v>0.336998096470697</v>
       </c>
       <c r="D7" t="n">
-        <v>0.757480297774307</v>
+        <v>0.268616824558689</v>
       </c>
       <c r="E7" t="n">
-        <v>0.637897645695564</v>
+        <v>0.382893164242151</v>
       </c>
       <c r="F7" t="n">
-        <v>0.877803125109165</v>
+        <v>0.374187196955111</v>
       </c>
       <c r="G7" t="n">
-        <v>0.700890373546844</v>
+        <v>0.320072683800596</v>
       </c>
     </row>
     <row r="8">
@@ -564,22 +558,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.71036942310177</v>
+        <v>0.591855289897272</v>
       </c>
       <c r="C8" t="n">
-        <v>0.767459227638374</v>
+        <v>0.655862045124518</v>
       </c>
       <c r="D8" t="n">
-        <v>0.769430442315501</v>
+        <v>0.657613954375195</v>
       </c>
       <c r="E8" t="n">
-        <v>0.758346955137085</v>
+        <v>0.631573977166983</v>
       </c>
       <c r="F8" t="n">
-        <v>0.84096493071521</v>
+        <v>0.72948771969849</v>
       </c>
       <c r="G8" t="n">
-        <v>0.746768125063093</v>
+        <v>0.633172213685746</v>
       </c>
     </row>
     <row r="9">
@@ -587,22 +581,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.776451040625449</v>
+        <v>0.502130679025185</v>
       </c>
       <c r="C9" t="n">
-        <v>0.752356847825706</v>
+        <v>0.567313448641177</v>
       </c>
       <c r="D9" t="n">
-        <v>0.829686492804909</v>
+        <v>0.503228122279896</v>
       </c>
       <c r="E9" t="n">
-        <v>0.705157484400394</v>
+        <v>0.576446559584848</v>
       </c>
       <c r="F9" t="n">
-        <v>0.849273919987832</v>
+        <v>0.750845858279366</v>
       </c>
       <c r="G9" t="n">
-        <v>0.66342378640839</v>
+        <v>0.494971525760212</v>
       </c>
     </row>
     <row r="10">
@@ -610,68 +604,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.869708886859866</v>
+        <v>0.550768403206271</v>
       </c>
       <c r="C10" t="n">
-        <v>0.815652162844027</v>
+        <v>0.585794025445152</v>
       </c>
       <c r="D10" t="n">
-        <v>0.834311730887263</v>
+        <v>0.541952525251571</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8156709550428</v>
+        <v>0.57905854763699</v>
       </c>
       <c r="F10" t="n">
-        <v>0.867891452365697</v>
+        <v>0.710900350676386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7671375817381</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.849616378214432</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.734028088236682</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.756084447572338</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.685545279841557</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.842706846604206</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.69712559445501</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.891121217137727</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.819983433106146</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.87483983315479</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.673226727255466</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.913082349886563</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.869575896966582</v>
+        <v>0.568877052905481</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,32 +35,27 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">Support for the GCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global tax on millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing half of global tax with low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion
+(US) / €100 million (Eu) for each human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Country]'s foreign aid should be increased</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universalist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationalist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individualist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favors [Country]'s interests even against global justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favors [Country]'s interests restrained by global justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favors global justice, restrained
-or not by [Country]'s interests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate change is a problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global poverty is a problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income inequality in [Country] is a problem</t>
   </si>
 </sst>
 </file>
@@ -420,22 +415,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.431295387287451</v>
+        <v>0.457959991433081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.415498652646033</v>
+        <v>0.242679133235796</v>
       </c>
       <c r="D2" t="n">
-        <v>0.360953103985898</v>
+        <v>0.197154004549498</v>
       </c>
       <c r="E2" t="n">
-        <v>0.482494601642772</v>
+        <v>0.287318534248269</v>
       </c>
       <c r="F2" t="n">
-        <v>0.422785911402492</v>
+        <v>0.190082286886279</v>
       </c>
       <c r="G2" t="n">
-        <v>0.378583106869736</v>
+        <v>0.25893872226297</v>
       </c>
     </row>
     <row r="3">
@@ -443,22 +438,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.335328023000906</v>
+        <v>0.260397843138756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.26778349671938</v>
+        <v>0.136808410283919</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34776174292469</v>
+        <v>0.132838609114996</v>
       </c>
       <c r="E3" t="n">
-        <v>0.177756964986634</v>
+        <v>0.133317535127324</v>
       </c>
       <c r="F3" t="n">
-        <v>0.319360978775697</v>
+        <v>0.11281931477433</v>
       </c>
       <c r="G3" t="n">
-        <v>0.260990187313521</v>
+        <v>0.141175484791906</v>
       </c>
     </row>
     <row r="4">
@@ -466,22 +461,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.159264138407261</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.145472297662639</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.141127082770151</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.149676296410627</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0920876802359206</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.182746057256662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -489,22 +484,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140626629557636</v>
+        <v>0.389116859621013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0890415597589719</v>
+        <v>0.276479958146891</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0869747098996209</v>
+        <v>0.284713606946689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0859081077054858</v>
+        <v>0.292521864346683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045793570170357</v>
+        <v>0.238985480395989</v>
       </c>
       <c r="G5" t="n">
-        <v>0.117646269574193</v>
+        <v>0.24732684988301</v>
       </c>
     </row>
     <row r="6">
@@ -512,22 +507,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.354734644190495</v>
+        <v>0.245434323397319</v>
       </c>
       <c r="C6" t="n">
-        <v>0.401067980135765</v>
+        <v>0.142248606097258</v>
       </c>
       <c r="D6" t="n">
-        <v>0.489852146546272</v>
+        <v>0.134774093805854</v>
       </c>
       <c r="E6" t="n">
-        <v>0.346877257212978</v>
+        <v>0.149087083860728</v>
       </c>
       <c r="F6" t="n">
-        <v>0.461933662628502</v>
+        <v>0.116451692291737</v>
       </c>
       <c r="G6" t="n">
-        <v>0.338968246906459</v>
+        <v>0.150879564243863</v>
       </c>
     </row>
     <row r="7">
@@ -535,22 +530,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.254760757150076</v>
+        <v>0.18028384191809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.336998096470697</v>
+        <v>0.138501430842085</v>
       </c>
       <c r="D7" t="n">
-        <v>0.268616824558689</v>
+        <v>0.076424398031436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.382893164242151</v>
+        <v>0.107886976232851</v>
       </c>
       <c r="F7" t="n">
-        <v>0.374187196955111</v>
+        <v>0.104534936604642</v>
       </c>
       <c r="G7" t="n">
-        <v>0.320072683800596</v>
+        <v>0.245975567329776</v>
       </c>
     </row>
     <row r="8">
@@ -558,68 +553,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.591855289897272</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.655862045124518</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.657613954375195</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.631573977166983</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.72948771969849</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.633172213685746</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.502130679025185</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.567313448641177</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.503228122279896</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.576446559584848</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.750845858279366</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.494971525760212</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.550768403206271</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.585794025445152</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.541952525251571</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.57905854763699</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.710900350676386</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.568877052905481</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,27 +35,19 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Support for the GCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global tax on millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharing half of global tax with low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion
-(US) / €100 million (Eu) for each human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable
-energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Country]'s foreign aid should be increased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universalist</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+GCS preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C+NR+GCS preferred to C+NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+C preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCS+NR preferred to C+NR</t>
   </si>
 </sst>
 </file>
@@ -415,22 +407,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.457959991433081</v>
+        <v>0.542040008566919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242679133235796</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197154004549498</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.287318534248269</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.190082286886279</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.25893872226297</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
     <row r="3">
@@ -438,22 +430,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.260397843138756</v>
+        <v>0.546998519360197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.136808410283919</v>
+        <v>0.770223388683434</v>
       </c>
       <c r="D3" t="n">
-        <v>0.132838609114996</v>
+        <v>0.791348238675161</v>
       </c>
       <c r="E3" t="n">
-        <v>0.133317535127324</v>
+        <v>0.7419152210687</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11281931477433</v>
+        <v>0.792397387102864</v>
       </c>
       <c r="G3" t="n">
-        <v>0.141175484791906</v>
+        <v>0.772122341113144</v>
       </c>
     </row>
     <row r="4">
@@ -461,22 +453,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.547746186051635</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.735351301009053</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.786517033810842</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.714098080786382</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.782294412865101</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.683359692303094</v>
       </c>
     </row>
     <row r="5">
@@ -484,22 +476,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.389116859621013</v>
+        <v>0.616278518818649</v>
       </c>
       <c r="C5" t="n">
-        <v>0.276479958146891</v>
+        <v>0.840441328944408</v>
       </c>
       <c r="D5" t="n">
-        <v>0.284713606946689</v>
+        <v>0.877676923710508</v>
       </c>
       <c r="E5" t="n">
-        <v>0.292521864346683</v>
+        <v>0.829293481343928</v>
       </c>
       <c r="F5" t="n">
-        <v>0.238985480395989</v>
+        <v>0.8401259487174</v>
       </c>
       <c r="G5" t="n">
-        <v>0.24732684988301</v>
+        <v>0.823739735276932</v>
       </c>
     </row>
     <row r="6">
@@ -507,68 +499,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245434323397319</v>
+        <v>0.472512715667483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.142248606097258</v>
+        <v>0.515377450158311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.134774093805854</v>
+        <v>0.529174790889353</v>
       </c>
       <c r="E6" t="n">
-        <v>0.149087083860728</v>
+        <v>0.532760503496087</v>
       </c>
       <c r="F6" t="n">
-        <v>0.116451692291737</v>
+        <v>0.490919481564323</v>
       </c>
       <c r="G6" t="n">
-        <v>0.150879564243863</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.18028384191809</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.138501430842085</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.076424398031436</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.107886976232851</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.104534936604642</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.245975567329776</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+        <v>0.520312075113975</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,19 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+GCS preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C+NR+GCS preferred to C+NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+C preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCS+NR preferred to C+NR</t>
+    <t xml:space="preserve">Supports the Global Climate Plan</t>
   </si>
 </sst>
 </file>
@@ -425,98 +413,6 @@
         <v>0.74106127773703</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.546998519360197</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.770223388683434</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.791348238675161</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7419152210687</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.792397387102864</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.772122341113144</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.547746186051635</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.735351301009053</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.786517033810842</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.714098080786382</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.782294412865101</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.683359692303094</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.616278518818649</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.840441328944408</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.877676923710508</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.829293481343928</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8401259487174</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.823739735276932</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.472512715667483</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.515377450158311</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.529174790889353</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.532760503496087</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.490919481564323</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.520312075113975</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,7 +35,16 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the Global Climate Plan</t>
+    <t xml:space="preserve">Preferred foreign aid is at least as high as current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid is higher than current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid is at least as high as perceived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foreign aid is higher than perceived</t>
   </si>
 </sst>
 </file>
@@ -395,22 +404,91 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.542040008566919</v>
+        <v>0.704940375280785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.757320866764204</v>
+        <v>0.748969192851456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.802845995450502</v>
+        <v>0.906993700274106</v>
       </c>
       <c r="E2" t="n">
-        <v>0.712681465751731</v>
+        <v>0.757158403558438</v>
       </c>
       <c r="F2" t="n">
-        <v>0.809917713113721</v>
+        <v>0.768795284722765</v>
       </c>
       <c r="G2" t="n">
-        <v>0.74106127773703</v>
+        <v>0.57144955442426</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.474793644184466</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.589837119485913</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.753920608842609</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.576461037322966</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.62526790907398</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.426622250399556</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.567003400895416</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.743709725807994</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.832508912407094</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.793233632834659</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.773769035471476</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.577225400942199</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.365019334499854</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.533701101345921</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.636414779134716</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.587651067741646</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.537247023957455</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.393330839363339</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,16 +35,47 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred foreign aid is at least as high as current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid is higher than current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid is at least as high as perceived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid is higher than perceived</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payments from high-income countries to compensate
+low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year
+to help low-income countries adapt to climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
+a country's voting right proportional to its population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A minimum wage in all countries
+at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial
+register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion
+(US) / €100 million (Eu) for each human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National tax on millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global tax on millionaires</t>
   </si>
 </sst>
 </file>
@@ -404,22 +435,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.704940375280785</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.748969192851456</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.906993700274106</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.757158403558438</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.768795284722765</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.57144955442426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +458,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.474793644184466</v>
+        <v>0.331058434467501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.589837119485913</v>
+        <v>0.213958779914946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.753920608842609</v>
+        <v>0.205972307701843</v>
       </c>
       <c r="E3" t="n">
-        <v>0.576461037322966</v>
+        <v>0.230529928550509</v>
       </c>
       <c r="F3" t="n">
-        <v>0.62526790907398</v>
+        <v>0.164823800704706</v>
       </c>
       <c r="G3" t="n">
-        <v>0.426622250399556</v>
+        <v>0.218577902063432</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +481,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.567003400895416</v>
+        <v>0.245434323397319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.743709725807994</v>
+        <v>0.142248606097258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.832508912407094</v>
+        <v>0.134774093805854</v>
       </c>
       <c r="E4" t="n">
-        <v>0.793233632834659</v>
+        <v>0.149087083860728</v>
       </c>
       <c r="F4" t="n">
-        <v>0.773769035471476</v>
+        <v>0.116451692291737</v>
       </c>
       <c r="G4" t="n">
-        <v>0.577225400942199</v>
+        <v>0.150879564243863</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +504,202 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.365019334499854</v>
+        <v>0.298543296705935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.533701101345921</v>
+        <v>0.178497600286045</v>
       </c>
       <c r="D5" t="n">
-        <v>0.636414779134716</v>
+        <v>0.166864360745894</v>
       </c>
       <c r="E5" t="n">
-        <v>0.587651067741646</v>
+        <v>0.16139731522685</v>
       </c>
       <c r="F5" t="n">
-        <v>0.537247023957455</v>
+        <v>0.162456495722803</v>
       </c>
       <c r="G5" t="n">
-        <v>0.393330839363339</v>
+        <v>0.216875287602092</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.368313515722097</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.328345689763679</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.319806805207884</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.40129213538184</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.274329246862058</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.258301545756225</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.251393626227851</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.185356400207098</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.199619764641246</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.18969967101821</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.145258199236654</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.171945946459124</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.241904411817908</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.181119602540562</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.277685425962151</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.189144845615411</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.127379870960311</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.109228691395027</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.247322997379965</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.140833871638839</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.137608333409878</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.149713175136929</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.140999720477104</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.110493265760028</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.27156407019877</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.100086365141389</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0848284649425457</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.117120143786786</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0687018665086359</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0986032547047111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.389116859621013</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.276479958146891</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.284713606946689</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.292521864346683</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.238985480395989</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.24732684988301</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="n">
+        <v>0.129696906968094</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.167636383394181</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.12105613125329</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0982664018462934</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.102331780755426</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="n">
+        <v>0.136808410283919</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.132838609114996</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.133317535127324</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.11281931477433</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.141175484791906</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,47 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate
-low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable
-energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year
-to help low-income countries adapt to climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
-a country's voting right proportional to its population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A minimum wage in all countries
-at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial
-register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion
-(US) / €100 million (Eu) for each human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National tax on millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global tax on millionaires</t>
+    <t xml:space="preserve">Plan mondial pour le climat</t>
   </si>
 </sst>
 </file>
@@ -435,271 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.542040004729187</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.331058434467501</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.213958779914946</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.205972307701843</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.230529928550509</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.164823800704706</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.218577902063432</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.245434323397319</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.142248606097258</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.134774093805854</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.149087083860728</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.116451692291737</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.150879564243863</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.298543296705935</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.178497600286045</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.166864360745894</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.16139731522685</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.162456495722803</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.216875287602092</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.368313515722097</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.328345689763679</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.319806805207884</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.40129213538184</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.274329246862058</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.258301545756225</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.251393626227851</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.185356400207098</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.199619764641246</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.18969967101821</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.145258199236654</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.171945946459124</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.241904411817908</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.181119602540562</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.277685425962151</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.189144845615411</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.127379870960311</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.109228691395027</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.247322997379965</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.140833871638839</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.137608333409878</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.149713175136929</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.140999720477104</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.110493265760028</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.27156407019877</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.100086365141389</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0848284649425457</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.117120143786786</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0687018665086359</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0986032547047111</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.389116859621013</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.276479958146891</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.284713606946689</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.292521864346683</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.238985480395989</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.24732684988301</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12" t="n">
-        <v>0.129696906968094</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.167636383394181</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.12105613125329</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0982664018462934</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.102331780755426</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13" t="n">
-        <v>0.136808410283919</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.132838609114996</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.133317535127324</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.11281931477433</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.141175484791906</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,30 +12,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan mondial pour le climat</t>
+    <t xml:space="preserve">Support for a Global Climate Scheme at $90/tCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred share of global wealth
+tax for low-income countries: ≥ 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Country]'s foreign aid should be increased</t>
   </si>
 </sst>
 </file>
@@ -395,22 +409,114 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.542040004729187</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.757320866764204</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.802845995450502</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.712681465751731</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.809917713113721</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.74106127773703</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.136808410283919</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.149546475232462</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.126243052861551</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.104146963356358</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.160894234267265</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.260397843252789</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.142248606097258</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.14364500234352</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.146400780628506</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.107962489761159</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.160307486129539</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.245434327058097</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.138501430842085</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0913480124390606</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.104654787224266</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0845698995878722</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.267751079674011</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.180283844136757</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,21 +35,7 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Support for a Global Climate Scheme at $90/tCO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred share of global wealth
-tax for low-income countries: ≥ 30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable
-energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Country]'s foreign aid should be increased</t>
+    <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
   </si>
 </sst>
 </file>
@@ -409,114 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.601344860710855</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.613245033112583</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.587147030185005</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.640070921985816</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.58043758043758</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.136808410283919</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.149546475232462</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.126243052861551</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.104146963356358</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.160894234267265</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.260397843252789</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.142248606097258</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.14364500234352</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.146400780628506</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.107962489761159</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.160307486129539</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.245434327058097</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.138501430842085</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0913480124390606</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.104654787224266</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0845698995878722</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.267751079674011</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.180283844136757</v>
+        <v>0.590432228283676</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
     <t xml:space="preserve">Europe</t>
   </si>
   <si>
@@ -32,10 +35,51 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National tax on millionaires funding public services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred share of global wealth tax
+for low-income countries: 30% or more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year
+to help low-income countries adapt to climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payments from high-income countries to compensate
+low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
+a country's voting right proportional to its population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A minimum wage in all countries
+at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial
+register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion
+(US) / €100 million (Eu) for each human</t>
   </si>
 </sst>
 </file>
@@ -395,22 +439,298 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.601344860710855</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.613245033112583</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.587147030185005</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.640070921985816</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.58043758043758</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.590432228283676</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.224419922630978</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.129696906968094</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.192668052254423</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.111640083187294</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.092037657888243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.118092923885629</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.260397843252789</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.136808410283919</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.149546475232462</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.126243052861551</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.104146963356358</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.160894234267265</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.298543301488354</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.178497600286045</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.172755733085984</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.159741464461112</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.156759559943565</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2243653016945</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.245434327058097</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.142248606097258</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.14364500234352</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.146400780628506</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.107962489761159</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.160307486129539</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.331058438535599</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.213958779914946</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.213231041156626</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.231526257316081</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.149635062134627</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.238313963423222</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.368313523343685</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.328345689763679</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.326876099107544</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.395080639471812</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.278135018632235</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.278909520866357</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.25139362861697</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.185356400207098</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.21562692205974</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.183458367118317</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.150227170120447</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.183823503214925</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.241904416506508</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.181119602540562</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.279868179500131</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.188263928402511</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.131924018768916</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.111284120036836</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.247323000985009</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.140833871638839</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.15256927547331</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.144265579446558</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.141743948886212</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.124261217142948</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.271564071497366</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.100086365141389</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0946178111478426</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.119912398642785</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0668067816915044</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.103606510572012</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.38911686217687</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.276479958146891</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.294050413861411</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.295450172879514</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.241415814869695</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.259980376885473</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -468,16 +468,16 @@
         <v>0.129696906968094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.192668052254423</v>
+        <v>0.167636383394181</v>
       </c>
       <c r="E3" t="n">
-        <v>0.111640083187294</v>
+        <v>0.12105613125329</v>
       </c>
       <c r="F3" t="n">
-        <v>0.092037657888243</v>
+        <v>0.0982664018462934</v>
       </c>
       <c r="G3" t="n">
-        <v>0.118092923885629</v>
+        <v>0.102331780755426</v>
       </c>
     </row>
     <row r="4">
@@ -491,16 +491,16 @@
         <v>0.136808410283919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.149546475232462</v>
+        <v>0.132838609114996</v>
       </c>
       <c r="E4" t="n">
-        <v>0.126243052861551</v>
+        <v>0.133317535127324</v>
       </c>
       <c r="F4" t="n">
-        <v>0.104146963356358</v>
+        <v>0.11281931477433</v>
       </c>
       <c r="G4" t="n">
-        <v>0.160894234267265</v>
+        <v>0.141175484791906</v>
       </c>
     </row>
     <row r="5">
@@ -537,16 +537,16 @@
         <v>0.178497600286045</v>
       </c>
       <c r="D6" t="n">
-        <v>0.172755733085984</v>
+        <v>0.166864360745894</v>
       </c>
       <c r="E6" t="n">
-        <v>0.159741464461112</v>
+        <v>0.16139731522685</v>
       </c>
       <c r="F6" t="n">
-        <v>0.156759559943565</v>
+        <v>0.162456495722803</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2243653016945</v>
+        <v>0.216875287602092</v>
       </c>
     </row>
     <row r="7">
@@ -560,16 +560,16 @@
         <v>0.142248606097258</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14364500234352</v>
+        <v>0.134774093805854</v>
       </c>
       <c r="E7" t="n">
-        <v>0.146400780628506</v>
+        <v>0.149087083860728</v>
       </c>
       <c r="F7" t="n">
-        <v>0.107962489761159</v>
+        <v>0.116451692291737</v>
       </c>
       <c r="G7" t="n">
-        <v>0.160307486129539</v>
+        <v>0.150879564243863</v>
       </c>
     </row>
     <row r="8">
@@ -583,16 +583,16 @@
         <v>0.213958779914946</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213231041156626</v>
+        <v>0.205972307701843</v>
       </c>
       <c r="E8" t="n">
-        <v>0.231526257316081</v>
+        <v>0.230529928550509</v>
       </c>
       <c r="F8" t="n">
-        <v>0.149635062134627</v>
+        <v>0.164823800704706</v>
       </c>
       <c r="G8" t="n">
-        <v>0.238313963423222</v>
+        <v>0.218577902063432</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         <v>0.328345689763679</v>
       </c>
       <c r="D9" t="n">
-        <v>0.326876099107544</v>
+        <v>0.319806805207884</v>
       </c>
       <c r="E9" t="n">
-        <v>0.395080639471812</v>
+        <v>0.40129213538184</v>
       </c>
       <c r="F9" t="n">
-        <v>0.278135018632235</v>
+        <v>0.274329246862058</v>
       </c>
       <c r="G9" t="n">
-        <v>0.278909520866357</v>
+        <v>0.258301545756225</v>
       </c>
     </row>
     <row r="10">
@@ -629,16 +629,16 @@
         <v>0.185356400207098</v>
       </c>
       <c r="D10" t="n">
-        <v>0.21562692205974</v>
+        <v>0.199619764641246</v>
       </c>
       <c r="E10" t="n">
-        <v>0.183458367118317</v>
+        <v>0.18969967101821</v>
       </c>
       <c r="F10" t="n">
-        <v>0.150227170120447</v>
+        <v>0.145258199236654</v>
       </c>
       <c r="G10" t="n">
-        <v>0.183823503214925</v>
+        <v>0.171945946459124</v>
       </c>
     </row>
     <row r="11">
@@ -652,16 +652,16 @@
         <v>0.181119602540562</v>
       </c>
       <c r="D11" t="n">
-        <v>0.279868179500131</v>
+        <v>0.277685425962151</v>
       </c>
       <c r="E11" t="n">
-        <v>0.188263928402511</v>
+        <v>0.189144845615411</v>
       </c>
       <c r="F11" t="n">
-        <v>0.131924018768916</v>
+        <v>0.127379870960311</v>
       </c>
       <c r="G11" t="n">
-        <v>0.111284120036836</v>
+        <v>0.109228691395027</v>
       </c>
     </row>
     <row r="12">
@@ -675,16 +675,16 @@
         <v>0.140833871638839</v>
       </c>
       <c r="D12" t="n">
-        <v>0.15256927547331</v>
+        <v>0.137608333409878</v>
       </c>
       <c r="E12" t="n">
-        <v>0.144265579446558</v>
+        <v>0.149713175136929</v>
       </c>
       <c r="F12" t="n">
-        <v>0.141743948886212</v>
+        <v>0.140999720477104</v>
       </c>
       <c r="G12" t="n">
-        <v>0.124261217142948</v>
+        <v>0.110493265760028</v>
       </c>
     </row>
     <row r="13">
@@ -698,16 +698,16 @@
         <v>0.100086365141389</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0946178111478426</v>
+        <v>0.0848284649425457</v>
       </c>
       <c r="E13" t="n">
-        <v>0.119912398642785</v>
+        <v>0.117120143786786</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0668067816915044</v>
+        <v>0.0687018665086359</v>
       </c>
       <c r="G13" t="n">
-        <v>0.103606510572012</v>
+        <v>0.0986032547047111</v>
       </c>
     </row>
     <row r="14">
@@ -721,16 +721,16 @@
         <v>0.276479958146891</v>
       </c>
       <c r="D14" t="n">
-        <v>0.294050413861411</v>
+        <v>0.284713606946689</v>
       </c>
       <c r="E14" t="n">
-        <v>0.295450172879514</v>
+        <v>0.292521864346683</v>
       </c>
       <c r="F14" t="n">
-        <v>0.241415814869695</v>
+        <v>0.238985480395989</v>
       </c>
       <c r="G14" t="n">
-        <v>0.259980376885473</v>
+        <v>0.24732684988301</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -46,6 +46,9 @@
   <si>
     <t xml:space="preserve">Preferred share of global wealth tax
 for low-income countries: 30% or more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Country]'s foreign aid should be increased*</t>
   </si>
   <si>
     <t xml:space="preserve">High-income countries contributing $100 billion per year
@@ -531,22 +534,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.298543301488354</v>
+        <v>0.401812994321634</v>
       </c>
       <c r="C6" t="n">
-        <v>0.178497600286045</v>
+        <v>0.363260971325463</v>
       </c>
       <c r="D6" t="n">
-        <v>0.166864360745894</v>
+        <v>0.372411615045415</v>
       </c>
       <c r="E6" t="n">
-        <v>0.16139731522685</v>
+        <v>0.323192398040104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.162456495722803</v>
+        <v>0.308940926050943</v>
       </c>
       <c r="G6" t="n">
-        <v>0.216875287602092</v>
+        <v>0.439155001522038</v>
       </c>
     </row>
     <row r="7">
@@ -554,22 +557,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.245434327058097</v>
+        <v>0.298543301488354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.142248606097258</v>
+        <v>0.178497600286045</v>
       </c>
       <c r="D7" t="n">
-        <v>0.134774093805854</v>
+        <v>0.166864360745894</v>
       </c>
       <c r="E7" t="n">
-        <v>0.149087083860728</v>
+        <v>0.16139731522685</v>
       </c>
       <c r="F7" t="n">
-        <v>0.116451692291737</v>
+        <v>0.162456495722803</v>
       </c>
       <c r="G7" t="n">
-        <v>0.150879564243863</v>
+        <v>0.216875287602092</v>
       </c>
     </row>
     <row r="8">
@@ -577,22 +580,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331058438535599</v>
+        <v>0.245434327058097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.213958779914946</v>
+        <v>0.142248606097258</v>
       </c>
       <c r="D8" t="n">
-        <v>0.205972307701843</v>
+        <v>0.134774093805854</v>
       </c>
       <c r="E8" t="n">
-        <v>0.230529928550509</v>
+        <v>0.149087083860728</v>
       </c>
       <c r="F8" t="n">
-        <v>0.164823800704706</v>
+        <v>0.116451692291737</v>
       </c>
       <c r="G8" t="n">
-        <v>0.218577902063432</v>
+        <v>0.150879564243863</v>
       </c>
     </row>
     <row r="9">
@@ -600,22 +603,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.368313523343685</v>
+        <v>0.331058438535599</v>
       </c>
       <c r="C9" t="n">
-        <v>0.328345689763679</v>
+        <v>0.213958779914946</v>
       </c>
       <c r="D9" t="n">
-        <v>0.319806805207884</v>
+        <v>0.205972307701843</v>
       </c>
       <c r="E9" t="n">
-        <v>0.40129213538184</v>
+        <v>0.230529928550509</v>
       </c>
       <c r="F9" t="n">
-        <v>0.274329246862058</v>
+        <v>0.164823800704706</v>
       </c>
       <c r="G9" t="n">
-        <v>0.258301545756225</v>
+        <v>0.218577902063432</v>
       </c>
     </row>
     <row r="10">
@@ -623,22 +626,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25139362861697</v>
+        <v>0.368313523343685</v>
       </c>
       <c r="C10" t="n">
-        <v>0.185356400207098</v>
+        <v>0.328345689763679</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199619764641246</v>
+        <v>0.319806805207884</v>
       </c>
       <c r="E10" t="n">
-        <v>0.18969967101821</v>
+        <v>0.40129213538184</v>
       </c>
       <c r="F10" t="n">
-        <v>0.145258199236654</v>
+        <v>0.274329246862058</v>
       </c>
       <c r="G10" t="n">
-        <v>0.171945946459124</v>
+        <v>0.258301545756225</v>
       </c>
     </row>
     <row r="11">
@@ -646,22 +649,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.241904416506508</v>
+        <v>0.25139362861697</v>
       </c>
       <c r="C11" t="n">
-        <v>0.181119602540562</v>
+        <v>0.185356400207098</v>
       </c>
       <c r="D11" t="n">
-        <v>0.277685425962151</v>
+        <v>0.199619764641246</v>
       </c>
       <c r="E11" t="n">
-        <v>0.189144845615411</v>
+        <v>0.18969967101821</v>
       </c>
       <c r="F11" t="n">
-        <v>0.127379870960311</v>
+        <v>0.145258199236654</v>
       </c>
       <c r="G11" t="n">
-        <v>0.109228691395027</v>
+        <v>0.171945946459124</v>
       </c>
     </row>
     <row r="12">
@@ -669,22 +672,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.247323000985009</v>
+        <v>0.241904416506508</v>
       </c>
       <c r="C12" t="n">
-        <v>0.140833871638839</v>
+        <v>0.181119602540562</v>
       </c>
       <c r="D12" t="n">
-        <v>0.137608333409878</v>
+        <v>0.277685425962151</v>
       </c>
       <c r="E12" t="n">
-        <v>0.149713175136929</v>
+        <v>0.189144845615411</v>
       </c>
       <c r="F12" t="n">
-        <v>0.140999720477104</v>
+        <v>0.127379870960311</v>
       </c>
       <c r="G12" t="n">
-        <v>0.110493265760028</v>
+        <v>0.109228691395027</v>
       </c>
     </row>
     <row r="13">
@@ -692,22 +695,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.271564071497366</v>
+        <v>0.247323000985009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.100086365141389</v>
+        <v>0.140833871638839</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0848284649425457</v>
+        <v>0.137608333409878</v>
       </c>
       <c r="E13" t="n">
-        <v>0.117120143786786</v>
+        <v>0.149713175136929</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0687018665086359</v>
+        <v>0.140999720477104</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0986032547047111</v>
+        <v>0.110493265760028</v>
       </c>
     </row>
     <row r="14">
@@ -715,21 +718,44 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
+        <v>0.271564071497366</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.100086365141389</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0848284649425457</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.117120143786786</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0687018665086359</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0986032547047111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
         <v>0.38911686217687</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>0.276479958146891</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>0.284713606946689</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>0.292521864346683</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>0.238985480395989</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>0.24732684988301</v>
       </c>
     </row>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -44,8 +44,8 @@
     <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred share of global wealth tax
-for low-income countries: 30% or more</t>
+    <t xml:space="preserve">Preferred share of global wealth
+tax for low-income countries: ≥ 30%</t>
   </si>
   <si>
     <t xml:space="preserve">[Country]'s foreign aid should be increased*</t>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,51 +38,10 @@
     <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">National tax on millionaires funding public services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred share of global wealth
-tax for low-income countries: ≥ 30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Country]'s foreign aid should be increased*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year
-to help low-income countries adapt to climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable
-energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate
-low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
-a country's voting right proportional to its population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A minimum wage in all countries
-at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial
-register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion
-(US) / €100 million (Eu) for each human</t>
+    <t xml:space="preserve">National redistribution scheme (NR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National climate policy + GCS + NR</t>
   </si>
 </sst>
 </file>
@@ -442,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.542040004729187</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
     <row r="3">
@@ -465,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.224419922630978</v>
+        <v>0.558431319432218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.129696906968094</v>
+        <v>0.726238536290562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.167636383394181</v>
+        <v>0.768794438370656</v>
       </c>
       <c r="E3" t="n">
-        <v>0.12105613125329</v>
+        <v>0.658435932985819</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0982664018462934</v>
+        <v>0.787745433104858</v>
       </c>
       <c r="G3" t="n">
-        <v>0.102331780755426</v>
+        <v>0.749378737165197</v>
       </c>
     </row>
     <row r="4">
@@ -488,275 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260397843252789</v>
+        <v>0.52487011843819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.136808410283919</v>
+        <v>0.735027761278094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.132838609114996</v>
+        <v>0.788770385854295</v>
       </c>
       <c r="E4" t="n">
-        <v>0.133317535127324</v>
+        <v>0.690510975064862</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11281931477433</v>
+        <v>0.808592285414348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.141175484791906</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.401812994321634</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.363260971325463</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.372411615045415</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.323192398040104</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.308940926050943</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.439155001522038</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.298543301488354</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.178497600286045</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.166864360745894</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.16139731522685</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.162456495722803</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.216875287602092</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.245434327058097</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.142248606097258</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.134774093805854</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.149087083860728</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.116451692291737</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.150879564243863</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.331058438535599</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.213958779914946</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.205972307701843</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.230529928550509</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.164823800704706</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.218577902063432</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.368313523343685</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.328345689763679</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.319806805207884</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.40129213538184</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.274329246862058</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.258301545756225</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.25139362861697</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.185356400207098</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.199619764641246</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.18969967101821</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.145258199236654</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.171945946459124</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.241904416506508</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.181119602540562</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.277685425962151</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.189144845615411</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.127379870960311</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.109228691395027</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.247323000985009</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.140833871638839</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.137608333409878</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.149713175136929</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.140999720477104</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.110493265760028</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.271564071497366</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.100086365141389</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0848284649425457</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.117120143786786</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0687018665086359</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0986032547047111</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.38911686217687</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.276479958146891</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.284713606946689</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.292521864346683</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.238985480395989</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.24732684988301</v>
+        <v>0.703443018587396</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,13 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National redistribution scheme (NR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National climate policy + GCS + NR</t>
+    <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
   </si>
 </sst>
 </file>
@@ -401,68 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.542040004729187</v>
+        <v>0.590432228283676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.757320866764204</v>
+        <v>0.601344860710855</v>
       </c>
       <c r="D2" t="n">
-        <v>0.802845995450502</v>
+        <v>0.613245033112583</v>
       </c>
       <c r="E2" t="n">
-        <v>0.712681465751731</v>
+        <v>0.587147030185005</v>
       </c>
       <c r="F2" t="n">
-        <v>0.809917713113721</v>
+        <v>0.640070921985816</v>
       </c>
       <c r="G2" t="n">
-        <v>0.74106127773703</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.558431319432218</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.726238536290562</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.768794438370656</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.658435932985819</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.787745433104858</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.749378737165197</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.52487011843819</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.735027761278094</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.788770385854295</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.690510975064862</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.808592285414348</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.703443018587396</v>
+        <v>0.58043758043758</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,30 +12,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
+    <t xml:space="preserve">Support for a Global Climate Scheme at $90/tCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred share of global wealth
+tax for low-income countries: ≥ 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Country]'s foreign aid should be increased</t>
   </si>
 </sst>
 </file>
@@ -395,22 +409,114 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.590432228283676</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.601344860710855</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.613245033112583</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.587147030185005</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.640070921985816</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.58043758043758</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.136808410283919</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.132838609114996</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.133317535127324</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.11281931477433</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.141175484791906</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.260397843252789</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.142248606097258</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.134774093805854</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.149087083860728</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.116451692291737</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.150879564243863</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.245434327058097</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.363260971325463</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.372411615045415</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.323192398040104</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.308940926050943</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.439155001522038</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.401812994321634</v>
       </c>
     </row>
   </sheetData>
